--- a/Output/UC.xlsx
+++ b/Output/UC.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">LL</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t xml:space="preserve">SdEps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index</t>
   </si>
   <si>
     <t xml:space="preserve">mu</t>
@@ -401,3208 +398,5805 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>229.967113575357</v>
+        <v>-250.195228636506</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-26.0310224046794</v>
+        <v>-24.3951314466576</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.38553614246696</v>
+        <v>3.9490982337811</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.15014580776464</v>
+        <v>-1.15072425624774</v>
       </c>
       <c r="F2" t="n">
-        <v>0.161832163963063</v>
+        <v>0.162944601284203</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00000222553949440902</v>
+        <v>0.00000504271604443526</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0676932999156862</v>
+        <v>7.20337104316919</v>
       </c>
       <c r="I2" t="n">
-        <v>88</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.127988389638363</v>
+        <v>13.0946360139714</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>229.966701218233</v>
+        <v>-250.195447342934</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>-17.0068802923745</v>
+        <v>-8.14892996458233</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.38564770581359</v>
+        <v>3.94911004384536</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.15012124485883</v>
+        <v>-1.15077862029375</v>
       </c>
       <c r="F3" t="n">
-        <v>0.161812521791471</v>
+        <v>0.162997632656842</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000202769610681294</v>
+        <v>0.0170013082451267</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0676895239754599</v>
+        <v>7.20341357943225</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.127989714923981</v>
+        <v>13.0949044708115</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>229.965609340459</v>
+        <v>-250.195970006877</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>-15.6437796218696</v>
+        <v>-6.98291634815075</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.38323469300541</v>
+        <v>3.94865831636109</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.15073298412216</v>
+        <v>-1.15078045186586</v>
       </c>
       <c r="F4" t="n">
-        <v>0.162418116320959</v>
+        <v>0.162994167152056</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000400863410476883</v>
+        <v>0.0304564290009553</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0677712411058341</v>
+        <v>7.20178677321022</v>
       </c>
       <c r="I4" t="n">
-        <v>91</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.128024276297522</v>
+        <v>13.0945422966669</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>229.965476261046</v>
+        <v>-250.196093498766</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>-15.580075208823</v>
+        <v>-6.85497768741504</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.38471987279709</v>
+        <v>3.94911321007069</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.15015734578839</v>
+        <v>-1.15073730788135</v>
       </c>
       <c r="F5" t="n">
-        <v>0.161845260771428</v>
+        <v>0.162957713673572</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000413837321577226</v>
+        <v>0.0324683716430528</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0677209335482139</v>
+        <v>7.20342498325656</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.127989335725972</v>
+        <v>13.0946836743551</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>229.964887964392</v>
+        <v>-250.197454740218</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>-15.2974069198486</v>
+        <v>-5.83972491450877</v>
       </c>
       <c r="D6" t="n">
-        <v>-5.38544815194855</v>
+        <v>3.94926677809415</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.14997459640106</v>
+        <v>-1.15147067774619</v>
       </c>
       <c r="F6" t="n">
-        <v>0.161666006876578</v>
+        <v>0.163687359836465</v>
       </c>
       <c r="G6" t="n">
-        <v>0.000476661739605263</v>
+        <v>0.0539411059979708</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0676962781654766</v>
+        <v>7.20397811236041</v>
       </c>
       <c r="I6" t="n">
-        <v>47</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.127979652538577</v>
+        <v>13.0993315480988</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>229.964809800952</v>
+        <v>-250.197599524644</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>-15.4730985440068</v>
+        <v>-5.78048469171796</v>
       </c>
       <c r="D7" t="n">
-        <v>-5.38289310909711</v>
+        <v>3.949758712442</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.14924964087605</v>
+        <v>-1.15153909159562</v>
       </c>
       <c r="F7" t="n">
-        <v>0.16093594048916</v>
+        <v>0.163755451327712</v>
       </c>
       <c r="G7" t="n">
-        <v>0.000436575482037978</v>
+        <v>0.0555627455784048</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0677828168770338</v>
+        <v>7.20575027243539</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.127930587229328</v>
+        <v>13.0997671406951</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>229.964442406326</v>
+        <v>-250.197706463176</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>-15.1224209973557</v>
+        <v>-5.80742468367053</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.38627698354299</v>
+        <v>3.94909241636578</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.14993491252086</v>
+        <v>-1.15071286823602</v>
       </c>
       <c r="F8" t="n">
-        <v>0.161625314900049</v>
+        <v>0.16293320067329</v>
       </c>
       <c r="G8" t="n">
-        <v>0.000520245106558101</v>
+        <v>0.0548193337366926</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0676682295706836</v>
+        <v>7.20335009069916</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.127976307890563</v>
+        <v>13.0944306457834</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>229.964368190869</v>
+        <v>-250.198240302907</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>-15.0467198800294</v>
+        <v>-5.63946756779318</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.38532824301222</v>
+        <v>3.94917182525838</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.15025162269888</v>
+        <v>-1.15041770538462</v>
       </c>
       <c r="F9" t="n">
-        <v>0.161936494423032</v>
+        <v>0.162631204192969</v>
       </c>
       <c r="G9" t="n">
-        <v>0.000540314089640606</v>
+        <v>0.0596218128831017</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0677003369815016</v>
+        <v>7.20363610140393</v>
       </c>
       <c r="I9" t="n">
-        <v>99</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.127992897337944</v>
+        <v>13.091960415342</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>229.964337671577</v>
+        <v>-250.198266723528</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>-15.1746501493849</v>
+        <v>-5.52960395543662</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.38693845844983</v>
+        <v>3.94961365506056</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.14941818253802</v>
+        <v>-1.15214839898136</v>
       </c>
       <c r="F10" t="n">
-        <v>0.161107641021045</v>
+        <v>0.164364610880579</v>
       </c>
       <c r="G10" t="n">
-        <v>0.000506834988056919</v>
+        <v>0.0629885712537168</v>
       </c>
       <c r="H10" t="n">
-        <v>0.067645852853371</v>
+        <v>7.20522766775464</v>
       </c>
       <c r="I10" t="n">
-        <v>100</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.127942964717512</v>
+        <v>13.1038568900614</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>229.964257527888</v>
+        <v>-250.198577260044</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>-14.9729556332166</v>
+        <v>-5.43682513658122</v>
       </c>
       <c r="D11" t="n">
-        <v>-5.38510033371285</v>
+        <v>3.94940556461216</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.15071740128918</v>
+        <v>-1.15207480842547</v>
       </c>
       <c r="F11" t="n">
-        <v>0.162405720286429</v>
+        <v>0.164289129961676</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00056061407270838</v>
+        <v>0.0659794091445599</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0677080521892694</v>
+        <v>7.20447803722496</v>
       </c>
       <c r="I11" t="n">
-        <v>85</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.128024581026756</v>
+        <v>13.1032173760982</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>229.964199164836</v>
+        <v>-250.19860953006</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.945802717162</v>
+        <v>-5.44582509616814</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.38649500966859</v>
+        <v>3.95066850381247</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.15103143062727</v>
+        <v>-1.15197686877055</v>
       </c>
       <c r="F12" t="n">
-        <v>0.162715223986596</v>
+        <v>0.164192135600751</v>
       </c>
       <c r="G12" t="n">
-        <v>0.000568277126999176</v>
+        <v>0.0656831701712204</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0676608532517889</v>
+        <v>7.20902888279952</v>
       </c>
       <c r="I12" t="n">
-        <v>42</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.128041729091805</v>
+        <v>13.1026155838691</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>229.964173566128</v>
+        <v>-250.198625329792</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>-14.9262403395278</v>
+        <v>-5.4997910946588</v>
       </c>
       <c r="D13" t="n">
-        <v>-5.38472837419742</v>
+        <v>3.94913952614525</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.15110252450969</v>
+        <v>-1.15060278555857</v>
       </c>
       <c r="F13" t="n">
-        <v>0.162787068610162</v>
+        <v>0.16282184355775</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00057386282573312</v>
+        <v>0.0639345389912865</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0677206456874426</v>
+        <v>7.20351976681459</v>
       </c>
       <c r="I13" t="n">
-        <v>27</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.128046699140571</v>
+        <v>13.093555835193</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>229.9640164614</v>
+        <v>-250.198682645028</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>-14.9281523768096</v>
+        <v>-5.48084625010532</v>
       </c>
       <c r="D14" t="n">
-        <v>-5.3853144228871</v>
+        <v>3.94913433950616</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.1502759492215</v>
+        <v>-1.15063110604392</v>
       </c>
       <c r="F14" t="n">
-        <v>0.161965960215362</v>
+        <v>0.162850607910477</v>
       </c>
       <c r="G14" t="n">
-        <v>0.000573314464338035</v>
+        <v>0.0645430313410937</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0677008047966818</v>
+        <v>7.20350108581023</v>
       </c>
       <c r="I14" t="n">
-        <v>51</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.127997484210436</v>
+        <v>13.0937733808459</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>229.96365524959</v>
+        <v>-250.198967252504</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.8444273135248</v>
+        <v>-5.33744865691068</v>
       </c>
       <c r="D15" t="n">
-        <v>-5.38540872930474</v>
+        <v>3.95013719930267</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.1499982027591</v>
+        <v>-1.15259561515458</v>
       </c>
       <c r="F15" t="n">
-        <v>0.161690013324392</v>
+        <v>0.164806641485705</v>
       </c>
       <c r="G15" t="n">
-        <v>0.000597824301872195</v>
+        <v>0.0693406247749311</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0676976125617586</v>
+        <v>7.20711404237327</v>
       </c>
       <c r="I15" t="n">
-        <v>16</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.127980824639019</v>
+        <v>13.1065243313113</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>229.963538024882</v>
+        <v>-250.199064537221</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>-14.8049796070263</v>
+        <v>-5.35297602499928</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.38538192709469</v>
+        <v>3.94916168112783</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.15005484483705</v>
+        <v>-1.15094204553507</v>
       </c>
       <c r="F16" t="n">
-        <v>0.161746232510266</v>
+        <v>0.163160880694047</v>
       </c>
       <c r="G16" t="n">
-        <v>0.000609732754901127</v>
+        <v>0.0688043704209787</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0676985197906535</v>
+        <v>7.20359956418405</v>
       </c>
       <c r="I16" t="n">
-        <v>68</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.127984096236597</v>
+        <v>13.0958112936142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>229.963534319138</v>
+        <v>-250.199288355244</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>-14.816340523019</v>
+        <v>-5.31777849150428</v>
       </c>
       <c r="D17" t="n">
-        <v>-5.38491139386978</v>
+        <v>3.94905796714793</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.14989610624087</v>
+        <v>-1.15066885096813</v>
       </c>
       <c r="F17" t="n">
-        <v>0.161581913745805</v>
+        <v>0.162876077202237</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00060627901230479</v>
+        <v>0.0700259601952528</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0677144488657891</v>
+        <v>7.20322601687944</v>
       </c>
       <c r="I17" t="n">
-        <v>58</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.127970544756916</v>
+        <v>13.0931920123825</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>229.963499160886</v>
+        <v>-250.200112318885</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>-14.7258835415625</v>
+        <v>-5.0929483764662</v>
       </c>
       <c r="D18" t="n">
-        <v>-5.38523109548454</v>
+        <v>3.95060987920202</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.1512086926776</v>
+        <v>-1.15182297050917</v>
       </c>
       <c r="F18" t="n">
-        <v>0.162894839569974</v>
+        <v>0.164037066617385</v>
       </c>
       <c r="G18" t="n">
-        <v>0.000634329659637337</v>
+        <v>0.0783574531590219</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0677036255215498</v>
+        <v>7.20881757264156</v>
       </c>
       <c r="I18" t="n">
-        <v>34</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.128054132919679</v>
+        <v>13.1014166132163</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>229.963305111628</v>
+        <v>-250.20046356765</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>-14.6694251894893</v>
+        <v>-5.05924561059234</v>
       </c>
       <c r="D19" t="n">
-        <v>-5.38559016573141</v>
+        <v>3.94908321854468</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.15166588373712</v>
+        <v>-1.15070288564452</v>
       </c>
       <c r="F19" t="n">
-        <v>0.163351287948888</v>
+        <v>0.162923164929801</v>
       </c>
       <c r="G19" t="n">
-        <v>0.000652491402731488</v>
+        <v>0.0796890729139518</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0676914714338601</v>
+        <v>7.2033169632126</v>
       </c>
       <c r="I19" t="n">
-        <v>25</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.128082721910673</v>
+        <v>13.0942177406435</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>229.963179366094</v>
+        <v>-250.20089533573</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>-14.6614735807535</v>
+        <v>-4.94236007869444</v>
       </c>
       <c r="D20" t="n">
-        <v>-5.38550208576751</v>
+        <v>3.95034675907644</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.15075358029282</v>
+        <v>-1.15268600109095</v>
       </c>
       <c r="F20" t="n">
-        <v>0.162436063413831</v>
+        <v>0.164899983930804</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00065509074471411</v>
+        <v>0.084485104408512</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0676944526306856</v>
+        <v>7.20786924253158</v>
       </c>
       <c r="I20" t="n">
-        <v>74</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.12802274575308</v>
+        <v>13.1072319235605</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>229.962727101905</v>
+        <v>-250.201183848635</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>-14.5923452731666</v>
+        <v>-4.91646635421768</v>
       </c>
       <c r="D21" t="n">
-        <v>-5.38539147003371</v>
+        <v>3.94879246449236</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.15010116267318</v>
+        <v>-1.15097935767462</v>
       </c>
       <c r="F21" t="n">
-        <v>0.161786482916596</v>
+        <v>0.163194518808841</v>
       </c>
       <c r="G21" t="n">
-        <v>0.000678129261793147</v>
+        <v>0.0855860328225334</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0676981967700008</v>
+        <v>7.20226984252948</v>
       </c>
       <c r="I21" t="n">
-        <v>41</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.127982864074997</v>
+        <v>13.0957133257354</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>229.962597919033</v>
+        <v>-250.201754644331</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>-14.5240700125779</v>
+        <v>-4.79929532448205</v>
       </c>
       <c r="D22" t="n">
-        <v>-5.38555655083489</v>
+        <v>3.94903770939961</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.15087014974645</v>
+        <v>-1.15217989036758</v>
       </c>
       <c r="F22" t="n">
-        <v>0.162556645564462</v>
+        <v>0.164390571651836</v>
       </c>
       <c r="G22" t="n">
-        <v>0.000701678661218428</v>
+        <v>0.0907499222813839</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0676926091643252</v>
+        <v>7.20315305667909</v>
       </c>
       <c r="I22" t="n">
-        <v>24</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.128032380600901</v>
+        <v>13.1035289789149</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>229.962122818843</v>
+        <v>-250.202811565224</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>-14.5565653561303</v>
+        <v>-4.68291253606829</v>
       </c>
       <c r="D23" t="n">
-        <v>-5.38416020548133</v>
+        <v>3.94916500137115</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.14907436647012</v>
+        <v>-1.15082256532068</v>
       </c>
       <c r="F23" t="n">
-        <v>0.160762192141618</v>
+        <v>0.163040726462194</v>
       </c>
       <c r="G23" t="n">
-        <v>0.000690370134031693</v>
+        <v>0.0961874614623794</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0677398867965186</v>
+        <v>7.20361152304565</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.127919160619782</v>
+        <v>13.094766193666</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>229.961594713484</v>
+        <v>-250.203802454555</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>-14.3681416868743</v>
+        <v>-4.5857457055025</v>
       </c>
       <c r="D24" t="n">
-        <v>-5.38538628608301</v>
+        <v>3.95146730964716</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.15003901335254</v>
+        <v>-1.15053808462678</v>
       </c>
       <c r="F24" t="n">
-        <v>0.16173069370181</v>
+        <v>0.162757255178131</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00075857351414996</v>
+        <v>0.100975955710826</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0676983722422857</v>
+        <v>7.21190876504496</v>
       </c>
       <c r="I24" t="n">
-        <v>18</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.127982369096076</v>
+        <v>13.092867486644</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>229.960627709391</v>
+        <v>-250.204186000654</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>-14.2069748877414</v>
+        <v>-4.52578774107004</v>
       </c>
       <c r="D25" t="n">
-        <v>-5.3853693635314</v>
+        <v>3.9491290236994</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.15000985303372</v>
+        <v>-1.15057789697892</v>
       </c>
       <c r="F25" t="n">
-        <v>0.161701696565462</v>
+        <v>0.162798068864105</v>
       </c>
       <c r="G25" t="n">
-        <v>0.000822232427903093</v>
+        <v>0.104048944481312</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0676989450593081</v>
+        <v>7.20348193962576</v>
       </c>
       <c r="I25" t="n">
-        <v>65</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.127980171649216</v>
+        <v>13.0931749741181</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>229.9601618397</v>
+        <v>-250.204440318998</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>-14.135457792442</v>
+        <v>-4.47222298025483</v>
       </c>
       <c r="D26" t="n">
-        <v>-5.38571864607829</v>
+        <v>3.94949112241866</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.15003934402969</v>
+        <v>-1.15150858336477</v>
       </c>
       <c r="F26" t="n">
-        <v>0.161729525911081</v>
+        <v>0.163721362483483</v>
       </c>
       <c r="G26" t="n">
-        <v>0.000852166271168832</v>
+        <v>0.106873275222183</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0676871230616666</v>
+        <v>7.20478624348619</v>
       </c>
       <c r="I26" t="n">
-        <v>22</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.127980785109362</v>
+        <v>13.0989721517042</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>229.959388319375</v>
+        <v>-250.206914989449</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.9997733386052</v>
+        <v>-4.25143132832121</v>
       </c>
       <c r="D27" t="n">
-        <v>-5.38427392762003</v>
+        <v>3.94783402088028</v>
       </c>
       <c r="E27" t="n">
-        <v>-1.15108764441888</v>
+        <v>-1.15101772402045</v>
       </c>
       <c r="F27" t="n">
-        <v>0.162772725185283</v>
+        <v>0.163233244479549</v>
       </c>
       <c r="G27" t="n">
-        <v>0.000911985315629857</v>
+        <v>0.119347524949743</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0677360351436233</v>
+        <v>7.19881918464925</v>
       </c>
       <c r="I27" t="n">
-        <v>81</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.128043850337522</v>
+        <v>13.0957026629149</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>229.959368434054</v>
+        <v>-250.207358868702</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>-14.0264216954273</v>
+        <v>-4.20806515872601</v>
       </c>
       <c r="D28" t="n">
-        <v>-5.38535456386369</v>
+        <v>3.94836608953983</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.15004866739635</v>
+        <v>-1.15119778578973</v>
       </c>
       <c r="F28" t="n">
-        <v>0.161740372733587</v>
+        <v>0.163410562761227</v>
       </c>
       <c r="G28" t="n">
-        <v>0.000899914456299364</v>
+        <v>0.121963607325135</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0676994460221073</v>
+        <v>7.20073457245437</v>
       </c>
       <c r="I28" t="n">
-        <v>96</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.127981958137562</v>
+        <v>13.0967169567071</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>229.95851984589</v>
+        <v>-250.210894438494</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>-13.9177251109039</v>
+        <v>-4.12942988374374</v>
       </c>
       <c r="D29" t="n">
-        <v>-5.38567363493579</v>
+        <v>3.951682095177</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.15013340925804</v>
+        <v>-1.14706960788022</v>
       </c>
       <c r="F29" t="n">
-        <v>0.161818514148352</v>
+        <v>0.159295519743207</v>
       </c>
       <c r="G29" t="n">
-        <v>0.000950176733459133</v>
+        <v>0.126854446305516</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0676886464161791</v>
+        <v>7.21268331345726</v>
       </c>
       <c r="I29" t="n">
-        <v>19</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.127982813261614</v>
+        <v>13.0696902532591</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>229.958255794692</v>
+        <v>-250.225163163749</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>-13.8948336018484</v>
+        <v>-3.30660623937664</v>
       </c>
       <c r="D30" t="n">
-        <v>-5.38602911634198</v>
+        <v>3.94971862037306</v>
       </c>
       <c r="E30" t="n">
-        <v>-1.14997427821303</v>
+        <v>-1.15146541411862</v>
       </c>
       <c r="F30" t="n">
-        <v>0.161662378938434</v>
+        <v>0.163684228595719</v>
       </c>
       <c r="G30" t="n">
-        <v>0.000961114700339579</v>
+        <v>0.191416591323688</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0676766164577118</v>
+        <v>7.20560582716484</v>
       </c>
       <c r="I30" t="n">
-        <v>93</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.127974473998069</v>
+        <v>13.0980033362392</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>229.958038537748</v>
+        <v>-250.228452313481</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.8745315784036</v>
+        <v>-3.19963029982615</v>
       </c>
       <c r="D31" t="n">
-        <v>-5.3867778721882</v>
+        <v>3.95094807466406</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.15004915183861</v>
+        <v>-1.15247026861974</v>
       </c>
       <c r="F31" t="n">
-        <v>0.161727944535136</v>
+        <v>0.164682688423156</v>
       </c>
       <c r="G31" t="n">
-        <v>0.000970920672998031</v>
+        <v>0.201933842033126</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0676512845687453</v>
+        <v>7.21003667040684</v>
       </c>
       <c r="I31" t="n">
-        <v>97</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.127973338270455</v>
+        <v>13.1042328230735</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>229.958032037886</v>
+        <v>-250.235321763319</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.8840241663611</v>
+        <v>-3.02043680592988</v>
       </c>
       <c r="D32" t="n">
-        <v>-5.38485726918747</v>
+        <v>3.94793572154951</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.14960121193444</v>
+        <v>-1.15100944424298</v>
       </c>
       <c r="F32" t="n">
-        <v>0.161290681622612</v>
+        <v>0.163223454321844</v>
       </c>
       <c r="G32" t="n">
-        <v>0.000966323316886233</v>
+        <v>0.220861735833511</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0677162814021015</v>
+        <v>7.19918525632096</v>
       </c>
       <c r="I32" t="n">
-        <v>76</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.127951595629293</v>
+        <v>13.0940822297328</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>229.95773342221</v>
+        <v>-250.23591390592</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>-13.8041145837524</v>
+        <v>-2.99713924559115</v>
       </c>
       <c r="D33" t="n">
-        <v>-5.38416249421564</v>
+        <v>3.94893498410361</v>
       </c>
       <c r="E33" t="n">
-        <v>-1.15177356375808</v>
+        <v>-1.15245257338022</v>
       </c>
       <c r="F33" t="n">
-        <v>0.163456460866084</v>
+        <v>0.16466247916466</v>
       </c>
       <c r="G33" t="n">
-        <v>0.00100571425151124</v>
+        <v>0.223449548811803</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0677398092772614</v>
+        <v>7.20278309316536</v>
       </c>
       <c r="I33" t="n">
-        <v>54</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.128085436254104</v>
+        <v>13.1035562746984</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>229.956851266602</v>
+        <v>-250.239818943614</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>-13.7433862828603</v>
+        <v>-2.91557072828647</v>
       </c>
       <c r="D34" t="n">
-        <v>-5.38459517659512</v>
+        <v>3.95083467607797</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.15004504609281</v>
+        <v>-1.15067042875638</v>
       </c>
       <c r="F34" t="n">
-        <v>0.161730631536704</v>
+        <v>0.16288871847597</v>
       </c>
       <c r="G34" t="n">
-        <v>0.00103672026374882</v>
+        <v>0.23275116344608</v>
       </c>
       <c r="H34" t="n">
-        <v>0.067725155951446</v>
+        <v>7.20962787801404</v>
       </c>
       <c r="I34" t="n">
-        <v>94</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.12797673825537</v>
+        <v>13.0918463332523</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>229.956589821703</v>
+        <v>-257.735829460793</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>-13.7136434550875</v>
+        <v>3.31757134209629</v>
       </c>
       <c r="D35" t="n">
-        <v>-5.38583380695141</v>
+        <v>1.34687951855161</v>
       </c>
       <c r="E35" t="n">
-        <v>-1.15020071001049</v>
+        <v>1.96261565538019</v>
       </c>
       <c r="F35" t="n">
-        <v>0.161888793858361</v>
+        <v>0.999848950873085</v>
       </c>
       <c r="G35" t="n">
-        <v>0.00105225297026378</v>
+        <v>5.25292818712878</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0676832257197776</v>
+        <v>1.96097100106721</v>
       </c>
       <c r="I35" t="n">
-        <v>31</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.127988040861076</v>
+        <v>4.39844288999272</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>229.954620936421</v>
+        <v>-275.205594731781</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>-13.5481748621871</v>
+        <v>4.29822426517249</v>
       </c>
       <c r="D36" t="n">
-        <v>-5.38530870132987</v>
+        <v>0.543083663688335</v>
       </c>
       <c r="E36" t="n">
-        <v>-1.14997507409615</v>
+        <v>1.95680102356418</v>
       </c>
       <c r="F36" t="n">
-        <v>0.161667027153421</v>
+        <v>0.999131138957106</v>
       </c>
       <c r="G36" t="n">
-        <v>0.00114301310237088</v>
+        <v>8.57723956391272</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0677009984739734</v>
+        <v>1.31198575349217</v>
       </c>
       <c r="I36" t="n">
-        <v>9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.127975234595504</v>
+        <v>5.78313641381179</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>229.954546490407</v>
+        <v>-276.890494774847</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.5226296505333</v>
+        <v>3.97061078787211</v>
       </c>
       <c r="D37" t="n">
-        <v>-5.3857667488695</v>
+        <v>1.67006117527988</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.15089128880369</v>
+        <v>0.913672815373804</v>
       </c>
       <c r="F37" t="n">
-        <v>0.162578103575529</v>
+        <v>-0.0858805771482801</v>
       </c>
       <c r="G37" t="n">
-        <v>0.00115770599167559</v>
+        <v>7.28127070186157</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0676854951114697</v>
+        <v>2.30488454818746</v>
       </c>
       <c r="I37" t="n">
-        <v>5</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.128030150858989</v>
+        <v>7.60455317973287</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>229.954294552819</v>
+        <v>-284.485679741383</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>-13.5073821536568</v>
+        <v>4.04979712583598</v>
       </c>
       <c r="D38" t="n">
-        <v>-5.38519167910037</v>
+        <v>2.41290915882078</v>
       </c>
       <c r="E38" t="n">
-        <v>-1.15057972969592</v>
+        <v>0.0278435181453404</v>
       </c>
       <c r="F38" t="n">
-        <v>0.162266580396707</v>
+        <v>0.999099182330715</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0011665657804098</v>
+        <v>7.57534248502543</v>
       </c>
       <c r="H38" t="n">
-        <v>0.067704959850755</v>
+        <v>3.34161619079149</v>
       </c>
       <c r="I38" t="n">
-        <v>32</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.128010255022437</v>
+        <v>7.55675340192057</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>229.954025539413</v>
+        <v>-285.402972227953</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>-13.4876696598422</v>
+        <v>4.38610712186034</v>
       </c>
       <c r="D39" t="n">
-        <v>-5.38554652109517</v>
+        <v>-3.60282223480031</v>
       </c>
       <c r="E39" t="n">
-        <v>-1.15057768730426</v>
+        <v>1.75493018527379</v>
       </c>
       <c r="F39" t="n">
-        <v>0.162267501255316</v>
+        <v>0.755294962301459</v>
       </c>
       <c r="G39" t="n">
-        <v>0.00117812059076566</v>
+        <v>8.96253903181221</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0676929486348016</v>
+        <v>0.165065796582703</v>
       </c>
       <c r="I39" t="n">
-        <v>10</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.128011845520879</v>
+        <v>9.9334019469674</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>229.952219801847</v>
+        <v>-285.520096543929</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>-13.3642280231585</v>
+        <v>4.71100921978657</v>
       </c>
       <c r="D40" t="n">
-        <v>-5.38510147234902</v>
+        <v>-5.03356187584982</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.15026671635516</v>
+        <v>1.96680229774109</v>
       </c>
       <c r="F40" t="n">
-        <v>0.161954407161117</v>
+        <v>0.967371549605927</v>
       </c>
       <c r="G40" t="n">
-        <v>0.00125312604747518</v>
+        <v>10.5434478476694</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0677080136418619</v>
+        <v>0.0807190285416041</v>
       </c>
       <c r="I40" t="n">
-        <v>46</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.127989941147605</v>
+        <v>9.7856443892923</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>229.952195519178</v>
+        <v>-286.86391146059</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>-13.3681480021581</v>
+        <v>3.78184332082132</v>
       </c>
       <c r="D41" t="n">
-        <v>-5.38559428626019</v>
+        <v>1.76808440195549</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.15004304505554</v>
+        <v>0.0110289510482751</v>
       </c>
       <c r="F41" t="n">
-        <v>0.161733384797556</v>
+        <v>-0.988851524853483</v>
       </c>
       <c r="G41" t="n">
-        <v>0.00125067233898718</v>
+        <v>6.62547230340143</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0676913319716759</v>
+        <v>2.42066477044716</v>
       </c>
       <c r="I41" t="n">
-        <v>82</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.127977401183987</v>
+        <v>8.94507084505083</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>229.947871936137</v>
+        <v>-287.001528929687</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>-13.1166343448506</v>
+        <v>4.57606545623824</v>
       </c>
       <c r="D42" t="n">
-        <v>-5.38406763112667</v>
+        <v>-1.70567671564332</v>
       </c>
       <c r="E42" t="n">
-        <v>-1.14992097648202</v>
+        <v>1.18404038467124</v>
       </c>
       <c r="F42" t="n">
-        <v>0.161613178276477</v>
+        <v>0.999534451880102</v>
       </c>
       <c r="G42" t="n">
-        <v>0.00141827040781733</v>
+        <v>9.85553009021077</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0677430223572388</v>
+        <v>0.426203495491913</v>
       </c>
       <c r="I42" t="n">
-        <v>20</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.12796883944468</v>
+        <v>10.2424201435426</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>229.946036236375</v>
+        <v>-288.340353984927</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>-13.0137650155366</v>
+        <v>4.61699422370396</v>
       </c>
       <c r="D43" t="n">
-        <v>-5.38372063878926</v>
+        <v>-2.55215385078212</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.15070950706819</v>
+        <v>1.09530921355901</v>
       </c>
       <c r="F43" t="n">
-        <v>0.162394032969828</v>
+        <v>0.99954367886523</v>
       </c>
       <c r="G43" t="n">
-        <v>0.00149312728764231</v>
+        <v>10.0592952933183</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0677547765316967</v>
+        <v>0.279130203896119</v>
       </c>
       <c r="I43" t="n">
-        <v>61</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.128013224361793</v>
+        <v>10.6057170921491</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>229.941000819665</v>
+        <v>-288.746467671542</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.8073675624773</v>
+        <v>4.51181709854283</v>
       </c>
       <c r="D44" t="n">
-        <v>-5.38593305588407</v>
+        <v>-0.612710883767464</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.15003107400774</v>
+        <v>-0.271700052297808</v>
       </c>
       <c r="F44" t="n">
-        <v>0.161719043014674</v>
+        <v>0.999223423514005</v>
       </c>
       <c r="G44" t="n">
-        <v>0.00165544771970228</v>
+        <v>9.54396053063866</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0676798670591582</v>
+        <v>0.736124923320564</v>
       </c>
       <c r="I44" t="n">
-        <v>56</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.127969941583727</v>
+        <v>10.2195293990998</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>229.929061918246</v>
+        <v>-288.917369000551</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>-12.4302552630405</v>
+        <v>4.38422048517641</v>
       </c>
       <c r="D45" t="n">
-        <v>-5.38538438020749</v>
+        <v>-0.540292421369158</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.14994875215243</v>
+        <v>0.257772020405774</v>
       </c>
       <c r="F45" t="n">
-        <v>0.161633876098826</v>
+        <v>0.999401217184249</v>
       </c>
       <c r="G45" t="n">
-        <v>0.00199896120367179</v>
+        <v>8.95408849075477</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0676984367546517</v>
+        <v>0.763267888257592</v>
       </c>
       <c r="I45" t="n">
-        <v>13</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.127957384749545</v>
+        <v>9.97150129808661</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>229.926311531327</v>
+        <v>-288.940500127607</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>-12.3640612457493</v>
+        <v>4.63555730709731</v>
       </c>
       <c r="D46" t="n">
-        <v>-5.38426013882179</v>
+        <v>-2.32505571428329</v>
       </c>
       <c r="E46" t="n">
-        <v>-1.14962488312254</v>
+        <v>0.126511207148595</v>
       </c>
       <c r="F46" t="n">
-        <v>0.161318227637144</v>
+        <v>0.999169018604073</v>
       </c>
       <c r="G46" t="n">
-        <v>0.00206622786222181</v>
+        <v>10.1530956948068</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0677365021444944</v>
+        <v>0.312694733356045</v>
       </c>
       <c r="I46" t="n">
-        <v>14</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.127940773639537</v>
+        <v>10.7458600157668</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>229.924605963189</v>
+        <v>-288.946835150684</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.3147105411521</v>
+        <v>4.70928009847088</v>
       </c>
       <c r="D47" t="n">
-        <v>-5.38536458560982</v>
+        <v>-1.81526015145157</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.15045045905519</v>
+        <v>0.0170095284342066</v>
       </c>
       <c r="F47" t="n">
-        <v>0.162136919252191</v>
+        <v>-0.982151198443434</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0021178470038047</v>
+        <v>10.5343363367568</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0676991067896266</v>
+        <v>0.403479307253565</v>
       </c>
       <c r="I47" t="n">
-        <v>62</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.127987922001573</v>
+        <v>10.7499682969564</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>229.920988740872</v>
+        <v>-289.025142635943</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>-12.2542422451086</v>
+        <v>4.70133277305822</v>
       </c>
       <c r="D48" t="n">
-        <v>-5.38510796991704</v>
+        <v>-1.32702168601941</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.14855077124711</v>
+        <v>-1.97301604538298</v>
       </c>
       <c r="F48" t="n">
-        <v>0.160242448574405</v>
+        <v>0.999666647525713</v>
       </c>
       <c r="G48" t="n">
-        <v>0.00218285609889459</v>
+        <v>10.4925594958282</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0677077936735069</v>
+        <v>0.515039932232038</v>
       </c>
       <c r="I48" t="n">
-        <v>70</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.127869487262848</v>
+        <v>10.9043586487971</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>229.902489054657</v>
+        <v>-289.36788162047</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>-11.9056639756512</v>
+        <v>4.66761774986456</v>
       </c>
       <c r="D49" t="n">
-        <v>-5.37876719960756</v>
+        <v>-2.31378862225591</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.15409925685594</v>
+        <v>-0.607023076676224</v>
       </c>
       <c r="F49" t="n">
-        <v>0.165778065554019</v>
+        <v>0.999433946425798</v>
       </c>
       <c r="G49" t="n">
-        <v>0.00259847124954998</v>
+        <v>10.3171635754132</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0679227940944142</v>
+        <v>0.314461284827082</v>
       </c>
       <c r="I49" t="n">
-        <v>48</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.128206166494072</v>
+        <v>10.8135933352257</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>229.898364193085</v>
+        <v>-289.531794196891</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>-11.8313983585803</v>
+        <v>4.8493041336101</v>
       </c>
       <c r="D50" t="n">
-        <v>-5.3824458055175</v>
+        <v>-1.22931253455998</v>
       </c>
       <c r="E50" t="n">
-        <v>-1.15123185064557</v>
+        <v>0.495079992282359</v>
       </c>
       <c r="F50" t="n">
-        <v>0.162921439329537</v>
+        <v>0.999666918196766</v>
       </c>
       <c r="G50" t="n">
-        <v>0.00269677361127838</v>
+        <v>11.2982976825182</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0677979783207252</v>
+        <v>0.540826763217421</v>
       </c>
       <c r="I50" t="n">
-        <v>40</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.128027273852921</v>
+        <v>10.4156192194136</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>229.843533512437</v>
+        <v>-289.60181657206</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.2452581098785</v>
+        <v>4.6851492781353</v>
       </c>
       <c r="D51" t="n">
-        <v>-5.38413723284492</v>
+        <v>-2.81225484311385</v>
       </c>
       <c r="E51" t="n">
-        <v>-1.15607225575521</v>
+        <v>-1.25659821586212</v>
       </c>
       <c r="F51" t="n">
-        <v>0.167750345101079</v>
+        <v>0.999602127460001</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0036151242440172</v>
+        <v>10.4079989369004</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0677406648828822</v>
+        <v>0.245090580226036</v>
       </c>
       <c r="I51" t="n">
-        <v>37</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.128303829016067</v>
+        <v>10.9272681829094</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>229.785198408601</v>
+        <v>-289.606468684969</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.857840264745</v>
+        <v>4.70010535994799</v>
       </c>
       <c r="D52" t="n">
-        <v>-5.38525388739421</v>
+        <v>-3.41276450474125</v>
       </c>
       <c r="E52" t="n">
-        <v>-1.15063701219113</v>
+        <v>0.159999993916125</v>
       </c>
       <c r="F52" t="n">
-        <v>0.162324634274539</v>
+        <v>-0.839177042087426</v>
       </c>
       <c r="G52" t="n">
-        <v>0.00438783152244929</v>
+        <v>10.4861221188179</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0677028539784875</v>
+        <v>0.181521304432806</v>
       </c>
       <c r="I52" t="n">
-        <v>55</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.127935191545499</v>
+        <v>10.9427371337127</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>222.82802046403</v>
+        <v>-289.640087628748</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>-5.96724247211644</v>
+        <v>4.71186307143302</v>
       </c>
       <c r="D53" t="n">
-        <v>-8.08420596500075</v>
+        <v>-3.79462315569546</v>
       </c>
       <c r="E53" t="n">
-        <v>1.9638991191408</v>
+        <v>0.397333340287656</v>
       </c>
       <c r="F53" t="n">
-        <v>0.964711360317973</v>
+        <v>-0.601871563851656</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0506092336538945</v>
+        <v>10.5479500788124</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0175605041245416</v>
+        <v>0.149971263808636</v>
       </c>
       <c r="I53" t="n">
-        <v>67</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.0468691377294269</v>
+        <v>10.9529451474062</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>219.10029280807</v>
+        <v>-289.921798672243</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>-5.92040237434458</v>
+        <v>4.75512750457728</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.85257160460095</v>
+        <v>0.0321279867866507</v>
       </c>
       <c r="E54" t="n">
-        <v>1.9206274564548</v>
+        <v>-0.387759311539279</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9990066268043</v>
+        <v>0.999523200451787</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0518084929199568</v>
+        <v>10.7786114832195</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0197167686992094</v>
+        <v>1.01619371300938</v>
       </c>
       <c r="I54" t="n">
-        <v>64</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.0480717001004697</v>
+        <v>10.0539501045928</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>219.005690987471</v>
+        <v>-290.016561766117</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>-5.67437006308543</v>
+        <v>4.52637417746561</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.40674715084356</v>
+        <v>-2.76841410232368</v>
       </c>
       <c r="E55" t="n">
-        <v>1.79008737277247</v>
+        <v>0.111377117858803</v>
       </c>
       <c r="F55" t="n">
-        <v>0.790576713306919</v>
+        <v>-0.887976930133044</v>
       </c>
       <c r="G55" t="n">
-        <v>0.05859036407252</v>
+        <v>9.61368004429982</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0149450733476165</v>
+        <v>0.25052237247649</v>
       </c>
       <c r="I55" t="n">
-        <v>35</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.0556842749127331</v>
+        <v>10.8557280644916</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>218.791231933678</v>
+        <v>-290.094562820787</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>-5.6957857585155</v>
+        <v>4.744457329552</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.11467895270463</v>
+        <v>-9.99456851247066</v>
       </c>
       <c r="E56" t="n">
-        <v>1.93729941138601</v>
+        <v>-1.56987568614461</v>
       </c>
       <c r="F56" t="n">
-        <v>0.999155275113748</v>
+        <v>0.589486250441853</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0579663343465892</v>
+        <v>10.7212597719253</v>
       </c>
       <c r="H56" t="n">
-        <v>0.017294971640386</v>
+        <v>0.00675627040621258</v>
       </c>
       <c r="I56" t="n">
-        <v>33</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.0492085107647107</v>
+        <v>11.0708992108901</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>218.391322916403</v>
+        <v>-290.094599377073</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>-5.68314967928481</v>
+        <v>4.74444832412042</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.16750609314865</v>
+        <v>-12.9022902512401</v>
       </c>
       <c r="E57" t="n">
-        <v>1.76854482375402</v>
+        <v>-1.83456568604371</v>
       </c>
       <c r="F57" t="n">
-        <v>0.76876144520907</v>
+        <v>0.994518242626567</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0583337273229163</v>
+        <v>10.7212114972483</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0168441300716915</v>
+        <v>0.00157871330819165</v>
       </c>
       <c r="I57" t="n">
-        <v>44</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.0544669899544276</v>
+        <v>11.0708939878954</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>217.152805130473</v>
+        <v>-290.09461532856</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>-5.57387435808129</v>
+        <v>4.74445015365548</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.52566538681069</v>
+        <v>-16.0497160443471</v>
       </c>
       <c r="E58" t="n">
-        <v>1.77832124539044</v>
+        <v>-1.82124093080092</v>
       </c>
       <c r="F58" t="n">
-        <v>0.778475836275975</v>
+        <v>0.824232806513488</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0616096244829584</v>
+        <v>10.721221304669</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0140823548635464</v>
+        <v>0.000327226481715116</v>
       </c>
       <c r="I58" t="n">
-        <v>7</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.0579827140619345</v>
+        <v>11.0708991142989</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>215.44993064631</v>
+        <v>-290.095088091878</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>-5.67700210807777</v>
+        <v>4.74342004480215</v>
       </c>
       <c r="D59" t="n">
-        <v>-7.8271451469805</v>
+        <v>-4.77838096728448</v>
       </c>
       <c r="E59" t="n">
-        <v>1.67393530599842</v>
+        <v>-0.0725120590919032</v>
       </c>
       <c r="F59" t="n">
-        <v>0.674386247247192</v>
+        <v>-0.205941806996205</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0585133085498637</v>
+        <v>10.7157007140012</v>
       </c>
       <c r="H59" t="n">
-        <v>0.019969032637972</v>
+        <v>0.0917038896367957</v>
       </c>
       <c r="I59" t="n">
-        <v>79</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.0554290131787055</v>
+        <v>11.0702054927739</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>214.945729544483</v>
+        <v>-290.095558301034</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>-5.68841944894251</v>
+        <v>4.7441512499746</v>
       </c>
       <c r="D60" t="n">
-        <v>-7.96192531871452</v>
+        <v>-4.99473213367313</v>
       </c>
       <c r="E60" t="n">
-        <v>1.54698772897669</v>
+        <v>-0.443870430314213</v>
       </c>
       <c r="F60" t="n">
-        <v>0.547892160550574</v>
+        <v>0.390616857270125</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0581802269864445</v>
+        <v>10.7196191181411</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0186676600875131</v>
+        <v>0.0823014900107555</v>
       </c>
       <c r="I60" t="n">
-        <v>57</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.0599141567263956</v>
+        <v>11.0704228587925</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>214.470818182037</v>
+        <v>-290.188939092392</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>-6.01907291708522</v>
+        <v>4.58902965181411</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.91804148385046</v>
+        <v>-5.63983565660807</v>
       </c>
       <c r="E61" t="n">
-        <v>1.56034630173535</v>
+        <v>1.4229585049476</v>
       </c>
       <c r="F61" t="n">
-        <v>0.56118297729032</v>
+        <v>0.999922470647056</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0493145327935587</v>
+        <v>9.91962210093208</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0190817911434485</v>
+        <v>0.0596108408315821</v>
       </c>
       <c r="I61" t="n">
-        <v>45</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.0579147656141286</v>
+        <v>11.0049061543928</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>209.595763352905</v>
+        <v>-290.739516283392</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>-5.4572290482886</v>
+        <v>4.33267881126701</v>
       </c>
       <c r="D62" t="n">
-        <v>-7.5389396993707</v>
+        <v>-2.0765810300423</v>
       </c>
       <c r="E62" t="n">
-        <v>1.53974915930003</v>
+        <v>0.631225011913197</v>
       </c>
       <c r="F62" t="n">
-        <v>0.540506869199645</v>
+        <v>0.999894586909451</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0653097120438338</v>
+        <v>8.72628212427402</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0230642875859022</v>
+        <v>0.354059424179893</v>
       </c>
       <c r="I62" t="n">
-        <v>30</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.0591044051262786</v>
+        <v>10.4949615491298</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>209.201523838986</v>
+        <v>-291.079527313733</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>-5.55505425428274</v>
+        <v>4.48689858004403</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.57707857964241</v>
+        <v>-4.70601173370959</v>
       </c>
       <c r="E63" t="n">
-        <v>1.45913356233237</v>
+        <v>0.727785486446684</v>
       </c>
       <c r="F63" t="n">
-        <v>0.999337647753083</v>
+        <v>-0.271294265772859</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0621921105607383</v>
+        <v>9.42578755468613</v>
       </c>
       <c r="H63" t="n">
-        <v>0.02262863159431</v>
+        <v>0.0950829256219391</v>
       </c>
       <c r="I63" t="n">
-        <v>26</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.0614358924534287</v>
+        <v>10.9718985154249</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>208.96378220818</v>
+        <v>-291.175393959501</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>-5.34085089072108</v>
+        <v>3.52197531406539</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.77400861892995</v>
+        <v>2.71672444580645</v>
       </c>
       <c r="E64" t="n">
-        <v>1.86566477309622</v>
+        <v>0.0126492133246138</v>
       </c>
       <c r="F64" t="n">
-        <v>0.999493569044704</v>
+        <v>-0.986935718570367</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0692227685379488</v>
+        <v>5.81818092492454</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0205066857991471</v>
+        <v>3.88981742819598</v>
       </c>
       <c r="I64" t="n">
-        <v>83</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.0518188696055776</v>
+        <v>8.94522293327738</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>208.114927352357</v>
+        <v>-292.427107890745</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>-5.45007735383126</v>
+        <v>4.45515355232461</v>
       </c>
       <c r="D65" t="n">
-        <v>-8.33834867216394</v>
+        <v>-7.9569633831603</v>
       </c>
       <c r="E65" t="n">
-        <v>1.47028347688627</v>
+        <v>-1.42131290839862</v>
       </c>
       <c r="F65" t="n">
-        <v>0.999853646982709</v>
+        <v>0.422157073153838</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0655436676420968</v>
+        <v>9.27735770474166</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0154650237660602</v>
+        <v>0.0187140314498066</v>
       </c>
       <c r="I65" t="n">
-        <v>72</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.0686060459361511</v>
+        <v>11.0709356492689</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>207.523414762764</v>
+        <v>-298.765566771281</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>-5.58346677070131</v>
+        <v>0.122718985213757</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.43279298394689</v>
+        <v>5.44395441095661</v>
       </c>
       <c r="E66" t="n">
-        <v>1.4303501453558</v>
+        <v>-1.13724495246516</v>
       </c>
       <c r="F66" t="n">
-        <v>0.99920528523531</v>
+        <v>0.138061671284912</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0613148395031385</v>
+        <v>1.06328108717877</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0243214526748124</v>
+        <v>15.2103665533568</v>
       </c>
       <c r="I66" t="n">
-        <v>92</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.0613892222035615</v>
+        <v>12.8183721735218</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>206.897996840671</v>
+        <v>-300.068365185502</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>-5.40973590615625</v>
+        <v>4.27166494596016</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.47895567830285</v>
+        <v>3.40808203751425</v>
       </c>
       <c r="E67" t="n">
-        <v>1.41971662463385</v>
+        <v>0.500065955652254</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9992368356721</v>
+        <v>-0.499607097751052</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0668791544500366</v>
+        <v>8.46408970079738</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0237665098328182</v>
+        <v>5.49611247039935</v>
       </c>
       <c r="I67" t="n">
-        <v>36</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.0626712226374718</v>
+        <v>8.30934753608867</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>206.098249640143</v>
+        <v>-301.730188621359</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>-5.65819130102513</v>
+        <v>3.90250530697528</v>
       </c>
       <c r="D68" t="n">
-        <v>-7.2502794387662</v>
+        <v>-0.628618621755483</v>
       </c>
       <c r="E68" t="n">
-        <v>1.53542945233806</v>
+        <v>0.0144974674742637</v>
       </c>
       <c r="F68" t="n">
-        <v>0.536354674980311</v>
+        <v>0.999112233028624</v>
       </c>
       <c r="G68" t="n">
-        <v>0.059066246052464</v>
+        <v>7.03749760740406</v>
       </c>
       <c r="H68" t="n">
-        <v>0.0266453742010186</v>
+        <v>0.730293105619569</v>
       </c>
       <c r="I68" t="n">
-        <v>77</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.0585910462636971</v>
+        <v>9.84074176250506</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>203.869796701318</v>
+        <v>-306.238917985632</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>-6.1366590349231</v>
+        <v>3.93390167247677</v>
       </c>
       <c r="D69" t="n">
-        <v>-8.62811696749131</v>
+        <v>-2.30095422381116</v>
       </c>
       <c r="E69" t="n">
-        <v>1.40131369715879</v>
+        <v>0.071884393476663</v>
       </c>
       <c r="F69" t="n">
-        <v>0.999520947551161</v>
+        <v>-0.927332486146285</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0464987653915086</v>
+        <v>7.14884522191982</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0133791402360013</v>
+        <v>0.316485734239835</v>
       </c>
       <c r="I69" t="n">
-        <v>39</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.0663300620566057</v>
+        <v>10.680570715485</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>201.853365379807</v>
+        <v>-310.134498816721</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>-5.28886125335075</v>
+        <v>3.46306920964656</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.13997640781364</v>
+        <v>-1.37591128120665</v>
       </c>
       <c r="E70" t="n">
-        <v>1.16994472881455</v>
+        <v>1.48455100013914</v>
       </c>
       <c r="F70" t="n">
-        <v>0.17004737894437</v>
+        <v>0.999162271723064</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0710457938056169</v>
+        <v>5.64931672842524</v>
       </c>
       <c r="H70" t="n">
-        <v>0.0281561858113326</v>
+        <v>0.502602519675477</v>
       </c>
       <c r="I70" t="n">
-        <v>50</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.0683991333447449</v>
+        <v>8.93786430310045</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>200.565748529266</v>
+        <v>-314.791654746577</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>-5.0457396004746</v>
+        <v>3.76084587859923</v>
       </c>
       <c r="D71" t="n">
-        <v>-7.35431696726086</v>
+        <v>-1.12645349732701</v>
       </c>
       <c r="E71" t="n">
-        <v>1.00045320964679</v>
+        <v>-1.02498650493271</v>
       </c>
       <c r="F71" t="n">
-        <v>0.00125787824231767</v>
+        <v>0.999425422456399</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0802290347570134</v>
+        <v>6.556277183168</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0252947482554922</v>
+        <v>0.569368886257396</v>
       </c>
       <c r="I71" t="n">
-        <v>53</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.0749710062962381</v>
+        <v>10.2655428581719</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>198.051592254209</v>
+        <v>-314.939324897932</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>-5.34114960544282</v>
+        <v>3.03092456082097</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.15976132167081</v>
+        <v>-0.433835789311545</v>
       </c>
       <c r="E72" t="n">
-        <v>0.61610693308697</v>
+        <v>1.1947635593709</v>
       </c>
       <c r="F72" t="n">
-        <v>0.999683384177401</v>
+        <v>0.194791079754892</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0692124303799871</v>
+        <v>4.55152472129943</v>
       </c>
       <c r="H72" t="n">
-        <v>0.0278790251162978</v>
+        <v>0.804996061070417</v>
       </c>
       <c r="I72" t="n">
-        <v>15</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.0722840160600698</v>
+        <v>7.99288663172028</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>197.997424334926</v>
+        <v>-328.325513486013</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>-5.59526081581901</v>
+        <v>3.56820136599139</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.16769011461695</v>
+        <v>-2.13392807547348</v>
       </c>
       <c r="E73" t="n">
-        <v>0.735369975456474</v>
+        <v>-0.0170328928460875</v>
       </c>
       <c r="F73" t="n">
-        <v>0.999164851479008</v>
+        <v>0.999521459759855</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0609543285268029</v>
+        <v>5.95422280524287</v>
       </c>
       <c r="H73" t="n">
-        <v>0.027768720397739</v>
+        <v>0.344051460700716</v>
       </c>
       <c r="I73" t="n">
-        <v>69</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.0698296202922087</v>
+        <v>10.4007677255734</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>197.775053672907</v>
+        <v>-329.492177962869</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>-6.46009963014686</v>
+        <v>6.27541981371267</v>
       </c>
       <c r="D74" t="n">
-        <v>-8.92470739256795</v>
+        <v>-3.81906607997928</v>
       </c>
       <c r="E74" t="n">
-        <v>1.44072746551097</v>
+        <v>1.4528486069835</v>
       </c>
       <c r="F74" t="n">
-        <v>0.44102723932666</v>
+        <v>0.999458132646081</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0395555282777729</v>
+        <v>23.0510173898376</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0115351809979407</v>
+        <v>0.14814955036142</v>
       </c>
       <c r="I74" t="n">
-        <v>23</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.0644529012226309</v>
+        <v>10.9946088435328</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>197.368149772203</v>
+        <v>-331.068710200885</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>-4.81657162535834</v>
+        <v>2.87937008077985</v>
       </c>
       <c r="D75" t="n">
-        <v>-7.57131936646315</v>
+        <v>0.0115179086221975</v>
       </c>
       <c r="E75" t="n">
-        <v>0.834734958501621</v>
+        <v>0.96076900807097</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.164591827544164</v>
+        <v>-0.0383501666299398</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0899693868451976</v>
+        <v>4.21936667761139</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0226938870609067</v>
+        <v>1.00577556896751</v>
       </c>
       <c r="I75" t="n">
-        <v>73</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.0818213172468213</v>
+        <v>7.96735972995203</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>196.928946005591</v>
+        <v>-338.684171882917</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>-5.02135448777379</v>
+        <v>3.50655025087301</v>
       </c>
       <c r="D76" t="n">
-        <v>-6.62730494889189</v>
+        <v>-2.34674773281369</v>
       </c>
       <c r="E76" t="n">
-        <v>0.00476274096708423</v>
+        <v>-0.968368672932313</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.994751301858928</v>
+        <v>0.999292462104555</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0812132194556767</v>
+        <v>5.77348061854737</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0363830426392418</v>
+        <v>0.309321569133134</v>
       </c>
       <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.0870307987829994</v>
+        <v>10.5955675849184</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>196.521105214922</v>
+        <v>-341.84622861793</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>-5.30798036249263</v>
+        <v>6.57020615421348</v>
       </c>
       <c r="D77" t="n">
-        <v>-6.85030169905215</v>
+        <v>-2.9379778462676</v>
       </c>
       <c r="E77" t="n">
-        <v>0.524504315352702</v>
+        <v>0.601059573818594</v>
       </c>
       <c r="F77" t="n">
-        <v>0.999291716355336</v>
+        <v>0.999755367933827</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0703698636059979</v>
+        <v>26.7117375416089</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0325443713158123</v>
+        <v>0.230158075089066</v>
       </c>
       <c r="I77" t="n">
-        <v>17</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.0713382925693422</v>
+        <v>11.0155229105997</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>196.317578643763</v>
+        <v>-342.691672085203</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>-5.09225794438397</v>
+        <v>3.43840054847522</v>
       </c>
       <c r="D78" t="n">
-        <v>-6.35657102567214</v>
+        <v>-1.09958077517902</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0116817533917584</v>
+        <v>-1.18359514563049</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.988037622021551</v>
+        <v>0.99918598073972</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0783845080784208</v>
+        <v>5.58006415834053</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0416570143478414</v>
+        <v>0.577070758896685</v>
       </c>
       <c r="I78" t="n">
-        <v>12</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.0882098299690007</v>
+        <v>10.1383079347626</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>195.980628038686</v>
+        <v>-344.923984906286</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>-5.14952014568304</v>
+        <v>3.30591610353776</v>
       </c>
       <c r="D79" t="n">
-        <v>-6.27733183360817</v>
+        <v>-0.28023492262456</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0108450475733206</v>
+        <v>0.00864862624892477</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.988626329169432</v>
+        <v>0.999695057253461</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0761720963609961</v>
+        <v>5.22240514626666</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0433405792893382</v>
+        <v>0.869256125436737</v>
       </c>
       <c r="I79" t="n">
-        <v>59</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.0881953272932973</v>
+        <v>9.19367815861694</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>195.590366525233</v>
+        <v>-346.428938733451</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>-5.01038385150038</v>
+        <v>6.67096851346427</v>
       </c>
       <c r="D80" t="n">
-        <v>-8.55710960527041</v>
+        <v>-1.63967647388237</v>
       </c>
       <c r="E80" t="n">
-        <v>0.537444318171499</v>
+        <v>0.6321251397201</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.461789482793307</v>
+        <v>0.999442486402188</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0816599238390621</v>
+        <v>28.091983662691</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0138626819280754</v>
+        <v>0.440502905840393</v>
       </c>
       <c r="I80" t="n">
-        <v>87</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.0921031578425846</v>
+        <v>10.9129713122528</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>195.291992667094</v>
+        <v>-349.207178071641</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>-5.30423764868072</v>
+        <v>3.3912535588995</v>
       </c>
       <c r="D81" t="n">
-        <v>-6.71780197141483</v>
+        <v>-1.27335943537705</v>
       </c>
       <c r="E81" t="n">
-        <v>0.473828168896412</v>
+        <v>-1.04314031541531</v>
       </c>
       <c r="F81" t="n">
-        <v>0.999187795835502</v>
+        <v>0.999828382403409</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0705016740299352</v>
+        <v>5.45006088106161</v>
       </c>
       <c r="H81" t="n">
-        <v>0.0347734544756481</v>
+        <v>0.529046093479301</v>
       </c>
       <c r="I81" t="n">
-        <v>95</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.0711255027735903</v>
+        <v>10.1702109541694</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>195.034760332507</v>
+        <v>-350.095730542158</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>-4.91218950244387</v>
+        <v>2.53885543481492</v>
       </c>
       <c r="D82" t="n">
-        <v>-6.34417193143228</v>
+        <v>-1.65532940190218</v>
       </c>
       <c r="E82" t="n">
-        <v>0.00813146031218113</v>
+        <v>1.79986143845045</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.991000799989293</v>
+        <v>0.999823750426715</v>
       </c>
       <c r="G82" t="n">
-        <v>0.085769248036939</v>
+        <v>3.55881533141098</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0419160711588963</v>
+        <v>0.437068781755189</v>
       </c>
       <c r="I82" t="n">
-        <v>80</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.0876092681173555</v>
+        <v>7.19416415007559</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>195.012594321118</v>
+        <v>-354.657141677541</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>-4.83827302179604</v>
+        <v>3.29402199345706</v>
       </c>
       <c r="D83" t="n">
-        <v>-6.52451849162035</v>
+        <v>-3.10140637429806</v>
       </c>
       <c r="E83" t="n">
-        <v>0.00975897687605167</v>
+        <v>1.19090850749243</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.989996739260103</v>
+        <v>0.999983644393499</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0889984334671128</v>
+        <v>5.19143938422938</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0383017670873031</v>
+        <v>0.2120987762422</v>
       </c>
       <c r="I83" t="n">
-        <v>4</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.0883078955271354</v>
+        <v>10.2852937922998</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>194.895448952976</v>
+        <v>-359.287917724718</v>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>-5.54929887815341</v>
+        <v>3.37650438943108</v>
       </c>
       <c r="D84" t="n">
-        <v>-6.6650239682966</v>
+        <v>-3.93081014191557</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0119332347040074</v>
+        <v>-1.39643712520158</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.987454153986017</v>
+        <v>0.999339967617334</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0623713378113924</v>
+        <v>5.41001678107321</v>
       </c>
       <c r="H84" t="n">
-        <v>0.0357033061890064</v>
+        <v>0.140099125033595</v>
       </c>
       <c r="I84" t="n">
-        <v>49</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.0884560020033324</v>
+        <v>10.9098757392544</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>194.862458442363</v>
+        <v>-361.397405041103</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>-5.82844879049752</v>
+        <v>3.28537665382956</v>
       </c>
       <c r="D85" t="n">
-        <v>-7.51277068002158</v>
+        <v>-1.13735709550318</v>
       </c>
       <c r="E85" t="n">
-        <v>0.63836033635257</v>
+        <v>-1.32674072922669</v>
       </c>
       <c r="F85" t="n">
-        <v>0.99932510501295</v>
+        <v>0.999045188584528</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0542460882447573</v>
+        <v>5.16904693835594</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0233680554730317</v>
+        <v>0.566273247550063</v>
       </c>
       <c r="I85" t="n">
-        <v>38</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.0712211434718863</v>
+        <v>10.111227922374</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>194.529234441634</v>
+        <v>-367.903581867901</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>-5.3083096329542</v>
+        <v>7.16500927509891</v>
       </c>
       <c r="D86" t="n">
-        <v>-6.85549275999495</v>
+        <v>-2.68834353773059</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0439220155542777</v>
+        <v>0.642715978659171</v>
       </c>
       <c r="F86" t="n">
-        <v>0.999988324214189</v>
+        <v>0.999414249132014</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0703582792008896</v>
+        <v>35.9635036796149</v>
       </c>
       <c r="H86" t="n">
-        <v>0.032460010935718</v>
+        <v>0.260755584343325</v>
       </c>
       <c r="I86" t="n">
-        <v>21</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.0756525979371261</v>
+        <v>11.0291805893744</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>194.251382220508</v>
+        <v>-371.629861142117</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>-5.41845696065381</v>
+        <v>3.13789808934519</v>
       </c>
       <c r="D87" t="n">
-        <v>-6.59634168717403</v>
+        <v>-0.77792564248915</v>
       </c>
       <c r="E87" t="n">
-        <v>0.592382893575395</v>
+        <v>-0.132525696328211</v>
       </c>
       <c r="F87" t="n">
-        <v>0.999893071310161</v>
+        <v>0.99995249283053</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0665881609782473</v>
+        <v>4.80159927480782</v>
       </c>
       <c r="H87" t="n">
-        <v>0.0369506942231553</v>
+        <v>0.677759467799047</v>
       </c>
       <c r="I87" t="n">
-        <v>60</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.069427280939543</v>
+        <v>9.49647189155509</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>193.476009335979</v>
+        <v>-387.942893928482</v>
       </c>
       <c r="B88" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>-5.5876140091995</v>
+        <v>2.97395593748748</v>
       </c>
       <c r="D88" t="n">
-        <v>-6.98436719060712</v>
+        <v>-0.427449050134594</v>
       </c>
       <c r="E88" t="n">
-        <v>0.100931877871795</v>
+        <v>0.292343035240149</v>
       </c>
       <c r="F88" t="n">
-        <v>0.999340738920035</v>
+        <v>0.999996699315721</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0611878276043602</v>
+        <v>4.42370671853459</v>
       </c>
       <c r="H88" t="n">
-        <v>0.03043434327252</v>
+        <v>0.807570819900923</v>
       </c>
       <c r="I88" t="n">
-        <v>8</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.0743837628074886</v>
+        <v>8.86932973771068</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>192.186592250591</v>
+        <v>-391.607544783958</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>-5.67164258632067</v>
+        <v>2.55427481411007</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.59405972852079</v>
+        <v>1.02371919452633</v>
       </c>
       <c r="E89" t="n">
-        <v>0.00988248537213206</v>
+        <v>0.0140665749216009</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.989499655599852</v>
+        <v>-0.985532337791255</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0586703205082817</v>
+        <v>3.58635873223536</v>
       </c>
       <c r="H89" t="n">
-        <v>0.03699287826235</v>
+        <v>1.66839084705343</v>
       </c>
       <c r="I89" t="n">
-        <v>86</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.0883765991012573</v>
+        <v>8.85685195389287</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>191.100980093143</v>
+        <v>-398.205427315747</v>
       </c>
       <c r="B90" t="n">
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>-4.70631085018099</v>
+        <v>7.79846147901942</v>
       </c>
       <c r="D90" t="n">
-        <v>-9.85061756118169</v>
+        <v>-2.91992495539171</v>
       </c>
       <c r="E90" t="n">
-        <v>0.0242899532555914</v>
+        <v>0.759404115859838</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.974863006009614</v>
+        <v>0.999881373585056</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0950687062506765</v>
+        <v>49.3644603668011</v>
       </c>
       <c r="H90" t="n">
-        <v>0.00726048403710138</v>
+        <v>0.23224498893338</v>
       </c>
       <c r="I90" t="n">
-        <v>75</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.103057715640613</v>
+        <v>11.0507488503345</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>191.061889087753</v>
+        <v>-406.925589947756</v>
       </c>
       <c r="B91" t="n">
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>-5.71435788317472</v>
+        <v>7.9648807687304</v>
       </c>
       <c r="D91" t="n">
-        <v>-7.18033971261471</v>
+        <v>-2.25937258972168</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0116542592516966</v>
+        <v>1.8764036511987</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.987417090636472</v>
+        <v>0.999107501254544</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0574305468808455</v>
+        <v>53.6477958505064</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0275936430708538</v>
+        <v>0.323134609511574</v>
       </c>
       <c r="I91" t="n">
-        <v>98</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.0883134837925491</v>
+        <v>10.8402291139012</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>190.440946397639</v>
+        <v>-408.759752380944</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>-4.70637752768504</v>
+        <v>8.0311370505933</v>
       </c>
       <c r="D92" t="n">
-        <v>-10.150060243472</v>
+        <v>-2.79791025756587</v>
       </c>
       <c r="E92" t="n">
-        <v>-1.32825968528087</v>
+        <v>0.820508332421634</v>
       </c>
       <c r="F92" t="n">
-        <v>0.995585466543301</v>
+        <v>0.999520553543766</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0950655368314858</v>
+        <v>55.4548139066385</v>
       </c>
       <c r="H92" t="n">
-        <v>0.00625089814888885</v>
+        <v>0.246854760670181</v>
       </c>
       <c r="I92" t="n">
-        <v>90</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.104145982491317</v>
+        <v>11.0525635605674</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>190.440946236198</v>
+        <v>-421.227708506998</v>
       </c>
       <c r="B93" t="n">
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>-4.7063418411062</v>
+        <v>2.3192090155152</v>
       </c>
       <c r="D93" t="n">
-        <v>-10.1497993065082</v>
+        <v>1.18366161531953</v>
       </c>
       <c r="E93" t="n">
-        <v>-1.32827546357144</v>
+        <v>0.788854501266483</v>
       </c>
       <c r="F93" t="n">
-        <v>0.995610576353688</v>
+        <v>-0.210421512578391</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0950672331285071</v>
+        <v>3.18867193169411</v>
       </c>
       <c r="H93" t="n">
-        <v>0.00625171374728488</v>
+        <v>1.80729419640812</v>
       </c>
       <c r="I93" t="n">
-        <v>78</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.10414367801909</v>
+        <v>7.6430146351041</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>190.440945931122</v>
+        <v>-426.668894978813</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>-4.70636232000942</v>
+        <v>2.62780015693945</v>
       </c>
       <c r="D94" t="n">
-        <v>-10.149718420342</v>
+        <v>-0.321493032296424</v>
       </c>
       <c r="E94" t="n">
-        <v>-1.32827837080723</v>
+        <v>0.483407734465629</v>
       </c>
       <c r="F94" t="n">
-        <v>0.995570505476202</v>
+        <v>0.999561878038804</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0950662596971575</v>
+        <v>3.72065630377461</v>
       </c>
       <c r="H94" t="n">
-        <v>0.00625196659097608</v>
+        <v>0.85150788725213</v>
       </c>
       <c r="I94" t="n">
-        <v>43</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.104146032741175</v>
+        <v>8.30331528090828</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>189.796345041305</v>
+        <v>-428.533331874966</v>
       </c>
       <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>-4.8097729637697</v>
+        <v>2.5932551596002</v>
       </c>
       <c r="D95" t="n">
-        <v>-11.4583270486321</v>
+        <v>-1.764628144657</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.183264458655114</v>
+        <v>1.10404085197061</v>
       </c>
       <c r="F95" t="n">
-        <v>0.999711723217857</v>
+        <v>0.104247552835331</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0902757429603281</v>
+        <v>3.65694309983702</v>
       </c>
       <c r="H95" t="n">
-        <v>0.00324979447105345</v>
+        <v>0.413824183734057</v>
       </c>
       <c r="I95" t="n">
-        <v>89</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.105847129188222</v>
+        <v>9.01737374570382</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>189.481542589601</v>
+        <v>-440.764395516148</v>
       </c>
       <c r="B96" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>-4.88418050142121</v>
+        <v>8.70773359791518</v>
       </c>
       <c r="D96" t="n">
-        <v>-12.767581158224</v>
+        <v>-5.08507069319568</v>
       </c>
       <c r="E96" t="n">
-        <v>1.10811879439385</v>
+        <v>-0.407563281380115</v>
       </c>
       <c r="F96" t="n">
-        <v>0.108335229155076</v>
+        <v>0.999369713055998</v>
       </c>
       <c r="G96" t="n">
-        <v>0.086978853707009</v>
+        <v>77.7786365464392</v>
       </c>
       <c r="H96" t="n">
-        <v>0.00168870962175732</v>
+        <v>0.0786666993941148</v>
       </c>
       <c r="I96" t="n">
-        <v>52</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.105761971821129</v>
+        <v>11.0704272166795</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>186.127785903342</v>
+        <v>-447.845023158447</v>
       </c>
       <c r="B97" t="n">
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>-4.77027824711632</v>
+        <v>2.52918067980348</v>
       </c>
       <c r="D97" t="n">
-        <v>-6.1666513080423</v>
+        <v>-0.376239780405858</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0450016956031236</v>
+        <v>0.478065035520822</v>
       </c>
       <c r="F97" t="n">
-        <v>0.999833344110748</v>
+        <v>0.999617436619812</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0920761687239414</v>
+        <v>3.54164156965336</v>
       </c>
       <c r="H97" t="n">
-        <v>0.0458066659349587</v>
+        <v>0.828515370402156</v>
       </c>
       <c r="I97" t="n">
-        <v>28</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.0748747386294916</v>
+        <v>8.26474409871995</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>185.946194030352</v>
+        <v>-451.867112948942</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>-5.45399079458748</v>
+        <v>2.59473009820292</v>
       </c>
       <c r="D98" t="n">
-        <v>-6.46318766338935</v>
+        <v>0.971101385691256</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.183423230969498</v>
+        <v>-1.33932577890106</v>
       </c>
       <c r="F98" t="n">
-        <v>0.999022041162751</v>
+        <v>0.999196686256594</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0654155424054761</v>
+        <v>3.65964097778877</v>
       </c>
       <c r="H98" t="n">
-        <v>0.0394945010103316</v>
+        <v>1.62506967672264</v>
       </c>
       <c r="I98" t="n">
-        <v>71</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.0759758091839098</v>
+        <v>8.64810338201936</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>162.614074277756</v>
+        <v>-467.831094254558</v>
       </c>
       <c r="B99" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>-6.20600031283754</v>
+        <v>9.21040871476865</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.74528846033887</v>
+        <v>-2.22103517414764</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0105368523074845</v>
+        <v>1.55748862448297</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.989407836843886</v>
+        <v>0.999850879198229</v>
       </c>
       <c r="G99" t="n">
-        <v>0.044914250279786</v>
+        <v>100.003417198008</v>
       </c>
       <c r="H99" t="n">
-        <v>0.0208032879516364</v>
+        <v>0.329388429753086</v>
       </c>
       <c r="I99" t="n">
-        <v>29</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.088128912165332</v>
+        <v>11.0434623026294</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>156.275382882047</v>
+        <v>-481.543402187826</v>
       </c>
       <c r="B100" t="n">
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>-5.481323956315</v>
+        <v>2.45380538226158</v>
       </c>
       <c r="D100" t="n">
-        <v>-5.73248162498037</v>
+        <v>-0.345643006333834</v>
       </c>
       <c r="E100" t="n">
-        <v>0.292698352853253</v>
+        <v>0.0100759531849</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.707140075671385</v>
+        <v>-0.989879134175912</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0645276168786316</v>
+        <v>3.41064932525235</v>
       </c>
       <c r="H100" t="n">
-        <v>0.0569124695991178</v>
+        <v>0.84128776864565</v>
       </c>
       <c r="I100" t="n">
-        <v>66</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.0910380484340313</v>
+        <v>9.31818445721759</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>116.190742979636</v>
+        <v>-488.450914339152</v>
       </c>
       <c r="B101" t="n">
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>-2.35687342570557</v>
+        <v>2.43995644159685</v>
       </c>
       <c r="D101" t="n">
-        <v>-5.9185206897397</v>
+        <v>-2.19282981364118</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.389810433803795</v>
+        <v>1.07112051114081</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.609367498104722</v>
+        <v>0.0715933502470074</v>
       </c>
       <c r="G101" t="n">
-        <v>0.307759479173673</v>
+        <v>3.38711396418023</v>
       </c>
       <c r="H101" t="n">
-        <v>0.0518572594789452</v>
+        <v>0.334066599286775</v>
       </c>
       <c r="I101" t="n">
-        <v>84</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.107247733129509</v>
+        <v>9.29108723920677</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>-501.751262975019</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>9.92494018752328</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-2.53098920179796</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.531275041345399</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.999110669379876</v>
+      </c>
+      <c r="G102" t="n">
+        <v>142.946451309343</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.282099734847341</v>
+      </c>
+      <c r="I102" t="n">
+        <v>11.0678528329652</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>-501.876788785003</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2.60311687991915</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-2.74122523304351</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.520420608771089</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.99918065123745</v>
+      </c>
+      <c r="G103" t="n">
+        <v>3.67501950436006</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.253951337104393</v>
+      </c>
+      <c r="I103" t="n">
+        <v>10.0933231485507</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>-514.819908697976</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>10.1864217693163</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-3.22749792793871</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.24582311225125</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.999041738309712</v>
+      </c>
+      <c r="G104" t="n">
+        <v>162.912115168764</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.199139645541639</v>
+      </c>
+      <c r="I104" t="n">
+        <v>11.0686474464539</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>-517.303583721277</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2.42955146976369</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-0.702354710987064</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.0923872735360297</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.999144524618051</v>
+      </c>
+      <c r="G105" t="n">
+        <v>3.36953830967293</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.703858909540757</v>
+      </c>
+      <c r="I105" t="n">
+        <v>8.77452071584971</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>-526.564628954511</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2.14654989861482</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.795707033063625</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.182313344768372</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-0.817626239392198</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2.92494287128191</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1.48862595484277</v>
+      </c>
+      <c r="I106" t="n">
+        <v>8.67470044173994</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>-537.955399175265</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2.3471585684352</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-0.672909316533498</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-0.0592050555359753</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.999821350760814</v>
+      </c>
+      <c r="G107" t="n">
+        <v>3.23354572949274</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.714298270363546</v>
+      </c>
+      <c r="I107" t="n">
+        <v>8.7685882780546</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>-545.043900649138</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>8.57909134348316</v>
+      </c>
+      <c r="D108" t="n">
+        <v>10.5267948480672</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-1.97241849030432</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.999561655559311</v>
+      </c>
+      <c r="G108" t="n">
+        <v>72.9333253005922</v>
+      </c>
+      <c r="H108" t="n">
+        <v>193.136544658743</v>
+      </c>
+      <c r="I108" t="n">
+        <v>18.0806265132648</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>-556.515713107857</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.93013784111576</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-1.67121859370354</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.20761342465449</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.207751652687595</v>
+      </c>
+      <c r="G109" t="n">
+        <v>2.62496856453824</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.433610203597392</v>
+      </c>
+      <c r="I109" t="n">
+        <v>8.09901324976776</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>-575.593516397562</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.777468191180255</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-0.405493419135626</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.98934910692432</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.990142018596604</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1.47511226032433</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.816485023080967</v>
+      </c>
+      <c r="I110" t="n">
+        <v>4.79241431420809</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>-585.600045967083</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>11.5651623793151</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.28125185915743</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.340380058534325</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.999838791079092</v>
+      </c>
+      <c r="G111" t="n">
+        <v>324.595953748939</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1.15099401463022</v>
+      </c>
+      <c r="I111" t="n">
+        <v>11.0622447507066</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>-630.426198118751</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>3.36627835770638</v>
+      </c>
+      <c r="D112" t="n">
+        <v>11.928778486012</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-1.43515122402813</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.999404665373708</v>
+      </c>
+      <c r="G112" t="n">
+        <v>5.38242587593272</v>
+      </c>
+      <c r="H112" t="n">
+        <v>389.315178475948</v>
+      </c>
+      <c r="I112" t="n">
+        <v>16.2784125885487</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>-671.362264521063</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>13.275565384161</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.858201025209952</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.622620038990342</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.999830904093179</v>
+      </c>
+      <c r="G113" t="n">
+        <v>763.400421220869</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1.53587540147682</v>
+      </c>
+      <c r="I113" t="n">
+        <v>11.0674868495225</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>-681.921922112102</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.972309086184611</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-2.34809646698541</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.80470321169548</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.804862681855563</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.62605127178618</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.309113043167392</v>
+      </c>
+      <c r="I114" t="n">
+        <v>5.86009969271038</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>-700.261355051028</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>13.8656499020177</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-3.23664490996069</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.84010690319238</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.999428627405526</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1025.38655879549</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.198230961675467</v>
+      </c>
+      <c r="I115" t="n">
+        <v>11.0706298924406</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>-702.922256250975</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2.22437149852421</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-2.21679952755991</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-1.76665097131046</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.999145310874684</v>
+      </c>
+      <c r="G116" t="n">
+        <v>3.04099799466454</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.330086755446547</v>
+      </c>
+      <c r="I116" t="n">
+        <v>10.2288174488303</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>-779.104112225966</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2.15888117750845</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-7.33641117497688</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-0.395147958762017</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-0.604009393577804</v>
+      </c>
+      <c r="G117" t="n">
+        <v>2.94303272487895</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.0255222262836979</v>
+      </c>
+      <c r="I117" t="n">
+        <v>11.0702743205457</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>-794.652160832922</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.61094420749195</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-1.16187525559148</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.759316356405715</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.999878344478981</v>
+      </c>
+      <c r="G118" t="n">
+        <v>2.23775270091455</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.559373636333389</v>
+      </c>
+      <c r="I118" t="n">
+        <v>7.86847039094808</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>-864.580760652948</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>17.1204065887429</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-4.43843568514784</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-1.91193805089786</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.999247064887903</v>
+      </c>
+      <c r="G119" t="n">
+        <v>5219.74220880836</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.108694091476539</v>
+      </c>
+      <c r="I119" t="n">
+        <v>11.0708989387673</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>-874.437939068274</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.55423713507369</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-0.960162723618524</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.57792409134076</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.57842411909752</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1.31932279061522</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.61873304851788</v>
+      </c>
+      <c r="I120" t="n">
+        <v>5.5616322113958</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>-907.692253583343</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-0.614776257667218</v>
+      </c>
+      <c r="D121" t="n">
+        <v>12.7878871280743</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.679080082866088</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.999262264376689</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.735365129101083</v>
+      </c>
+      <c r="H121" t="n">
+        <v>598.211017654137</v>
+      </c>
+      <c r="I121" t="n">
+        <v>16.4356652114818</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>-917.838604197102</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.200124467873455</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-1.1466756388038</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1.89525192322792</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.895852558902711</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1.10523969935288</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.563640963686192</v>
+      </c>
+      <c r="I122" t="n">
+        <v>4.83262003919508</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>-949.9708478055</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.680888162179989</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-0.749063119486099</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1.31407534302436</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.999462080286615</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1.40557163977497</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.687611308177204</v>
+      </c>
+      <c r="I123" t="n">
+        <v>6.1379358574708</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>-1022.29500094807</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2.92473982248265</v>
+      </c>
+      <c r="D124" t="n">
+        <v>10.2519613986115</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-0.664270404060434</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.999707113527757</v>
+      </c>
+      <c r="G124" t="n">
+        <v>4.3161763719605</v>
+      </c>
+      <c r="H124" t="n">
+        <v>168.339150814766</v>
+      </c>
+      <c r="I124" t="n">
+        <v>14.2372563916014</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>-1075.37614197449</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>7.57025188486637</v>
+      </c>
+      <c r="D125" t="n">
+        <v>21.2671443916766</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-0.0861862443359065</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.999836481947749</v>
+      </c>
+      <c r="G125" t="n">
+        <v>44.0412168674976</v>
+      </c>
+      <c r="H125" t="n">
+        <v>41505.1251356542</v>
+      </c>
+      <c r="I125" t="n">
+        <v>16.4580210874174</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>-1132.23910941914</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.214099288540155</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-3.01718421749467</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.90498841752152</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.905710122404522</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1.1129895066595</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.221221214226973</v>
+      </c>
+      <c r="I126" t="n">
+        <v>5.39700971498116</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>-1170.89771478567</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.973661526235096</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-0.17820715675841</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-0.207182051035658</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.999009925958867</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1.62715121207714</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.91475082026</v>
+      </c>
+      <c r="I127" t="n">
+        <v>7.56373259282077</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>-1230.16252068291</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1.39415249209317</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-0.788666726015698</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-0.691307974555138</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.999412260188812</v>
+      </c>
+      <c r="G128" t="n">
+        <v>2.00787358876714</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.674129289010522</v>
+      </c>
+      <c r="I128" t="n">
+        <v>8.48704258766266</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>-1308.94403830153</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.286665597463157</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-1.43111959673315</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.38372562754393</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.383822616755</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1.15411382537835</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.488918339487001</v>
+      </c>
+      <c r="I129" t="n">
+        <v>6.07835561640831</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>-1425.86064275712</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-0.205308668082881</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-1.54082830763623</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.82007982405605</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.820863687110589</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.902438861968058</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.462821349384453</v>
+      </c>
+      <c r="I130" t="n">
+        <v>5.03190205977525</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>-1574.70782586425</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.31096265835859</v>
+      </c>
+      <c r="D131" t="n">
+        <v>3.00668939809174</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-1.22949893699894</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.999303395571234</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1.92606936768643</v>
+      </c>
+      <c r="H131" t="n">
+        <v>4.49670406782164</v>
+      </c>
+      <c r="I131" t="n">
+        <v>10.5797868845958</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>-1715.52667327184</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>33.9708252133033</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-3.93299199877379</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.59118963150684</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.999572003195721</v>
+      </c>
+      <c r="G132" t="n">
+        <v>23805152.4962913</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.139946370252619</v>
+      </c>
+      <c r="I132" t="n">
+        <v>11.0708990588794</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>-1853.58821611996</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.992178308648449</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-1.28572579621766</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-1.00170293935371</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.999282971782133</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1.64228596818773</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.525784998392072</v>
+      </c>
+      <c r="I133" t="n">
+        <v>8.72788684636899</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>-1892.63915714216</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.21302022118706</v>
+      </c>
+      <c r="D134" t="n">
+        <v>11.3203406601145</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.19468455926659</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.999150225851969</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1.83401969132219</v>
+      </c>
+      <c r="H134" t="n">
+        <v>287.197556766442</v>
+      </c>
+      <c r="I134" t="n">
+        <v>15.3725326225941</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>-1959.52486031044</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>11.8092571657708</v>
+      </c>
+      <c r="D135" t="n">
+        <v>38.8024721303661</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.40262902306729</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.999399029157825</v>
+      </c>
+      <c r="G135" t="n">
+        <v>366.730990322675</v>
+      </c>
+      <c r="H135" t="n">
+        <v>266593628.195958</v>
+      </c>
+      <c r="I135" t="n">
+        <v>16.4720198348487</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>-2375.94865271259</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.197801094242403</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.582400056092355</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.501917776668474</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.999281858287657</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1.10395650244692</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1.33803220115059</v>
+      </c>
+      <c r="I136" t="n">
+        <v>7.82752413207154</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>-2646.43345683158</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.599943860704707</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-3.72727539056126</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-0.00742749152747406</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.999842932368866</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1.34982091804668</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.155107369521874</v>
+      </c>
+      <c r="I137" t="n">
+        <v>9.71955747430303</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>-2654.18017353213</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.286668699030184</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-0.438035082973686</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-1.18865211170272</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.999017391061876</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1.15411561516043</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.803307626819869</v>
+      </c>
+      <c r="I138" t="n">
+        <v>8.60860735650133</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>-2669.02942214212</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.0190018835789457</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-0.450848552455658</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-0.107120195877432</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.999684336666026</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1.00954621901541</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.798177499170638</v>
+      </c>
+      <c r="I139" t="n">
+        <v>7.54760458456512</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>-2725.28918389454</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.194014377090371</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-0.658940931273525</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-0.707502662107922</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.999379316096035</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1.10186829442256</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.719304529066614</v>
+      </c>
+      <c r="I140" t="n">
+        <v>8.0727962760511</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>-3033.90270441164</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.540072790889685</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-0.66167842164668</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-1.82147798148644</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.999617237359529</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1.31001212833978</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.718320657942807</v>
+      </c>
+      <c r="I141" t="n">
+        <v>9.31321902503451</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>-3098.91156290133</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.581824558652361</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-0.735743876992096</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-1.83923639296138</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.999184430141667</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1.33764723948616</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.692205820931445</v>
+      </c>
+      <c r="I142" t="n">
+        <v>9.32729546380474</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>-3162.7771861629</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.191231066320805</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.912056714942084</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-0.358094389995688</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.999131706431903</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1.10033593997928</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1.57779508641057</v>
+      </c>
+      <c r="I143" t="n">
+        <v>8.99619211213807</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>-3175.97124082611</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" t="n">
+        <v>62.8905196203191</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-4.26647051710316</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-1.45125047394932</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.999320601035506</v>
+      </c>
+      <c r="G144" t="n">
+        <v>45342223943074.3</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.11845344573998</v>
+      </c>
+      <c r="I144" t="n">
+        <v>11.0708990588801</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>-3192.48095053717</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-0.320387570930651</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-1.09023325048656</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.20270996089521</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.203523106252629</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.851978671884704</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.579774163093991</v>
+      </c>
+      <c r="I145" t="n">
+        <v>7.095617916418</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>-3350.79500367682</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-0.0139177547492705</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-0.925885210710632</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-0.675253867517987</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.999466515886265</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.993065279545028</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.629428757311348</v>
+      </c>
+      <c r="I146" t="n">
+        <v>8.02889241421468</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>-3474.13315962124</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-0.0286476919787935</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-0.952390657125196</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-0.818050485324312</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.999558442796102</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.985778252231511</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.621142143595318</v>
+      </c>
+      <c r="I147" t="n">
+        <v>8.16332017248794</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>-3544.50593570029</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>69.7953923035211</v>
+      </c>
+      <c r="D148" t="n">
+        <v>67.4652979710024</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-0.474344115992009</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.999113127302292</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1431781906271452</v>
+      </c>
+      <c r="H148" t="n">
+        <v>446584159453333</v>
+      </c>
+      <c r="I148" t="n">
+        <v>8.45888591182272</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>-3852.10920756783</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-0.136354525028646</v>
+      </c>
+      <c r="D149" t="n">
+        <v>-0.925585838593921</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-0.846713571892189</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.999269637090208</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.934094878893933</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.629522981072861</v>
+      </c>
+      <c r="I149" t="n">
+        <v>8.22779138844621</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>-4023.84555507783</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-0.125815273467738</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-0.767028076725675</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-1.26409740352202</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.99947289744159</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.93903020158025</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.681462511363613</v>
+      </c>
+      <c r="I150" t="n">
+        <v>8.73688832396595</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>-4083.04546864846</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-0.130122084745804</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-1.17097566925458</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-1.23439871362328</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.99988549314769</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.937010264301671</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.556834152561694</v>
+      </c>
+      <c r="I151" t="n">
+        <v>8.54204356403406</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>-5202.30386551504</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-0.361311460476825</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-1.33564558328181</v>
+      </c>
+      <c r="E152" t="n">
+        <v>-1.32993134005606</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.9992289571851</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.834722679012799</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.51282388766995</v>
+      </c>
+      <c r="I152" t="n">
+        <v>8.66575063766038</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>-5409.27897498192</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-0.436222433951911</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-1.21048294989129</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-1.15704914226971</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.999746456364599</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.804036014239665</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.545942579266777</v>
+      </c>
+      <c r="I153" t="n">
+        <v>8.54776116611653</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>-5700.70826635899</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-0.442050359219006</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-0.881612954980618</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-1.27546105953076</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.99976868077601</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.801696493631401</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.643517229592864</v>
+      </c>
+      <c r="I154" t="n">
+        <v>8.87933264680083</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>-6282.64665606046</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>-0.588037311006754</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-1.29688043878907</v>
+      </c>
+      <c r="E155" t="n">
+        <v>-1.25100542268736</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.999707274182591</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.745262588064873</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.522860689015721</v>
+      </c>
+      <c r="I155" t="n">
+        <v>8.6838640717604</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>-7167.06585002497</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>-0.620603613000315</v>
+      </c>
+      <c r="D156" t="n">
+        <v>-1.87448526359213</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-1.38084288609554</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.999726078476949</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.733225630565821</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.391706426484365</v>
+      </c>
+      <c r="I156" t="n">
+        <v>8.66107253440438</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>-7173.6192644467</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" t="n">
+        <v>-0.797966837061192</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-1.39822017900193</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-0.741377972915016</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.99914605539892</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.671001827457474</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.497027416958316</v>
+      </c>
+      <c r="I157" t="n">
+        <v>8.20122665054603</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>-7236.80213209453</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-0.77921560656636</v>
+      </c>
+      <c r="D158" t="n">
+        <v>-1.73286171092966</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-0.777857065672478</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.999352757319311</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.677322466060108</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.420449519526159</v>
+      </c>
+      <c r="I158" t="n">
+        <v>8.12121954537595</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>-7390.13442902558</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" t="n">
+        <v>-1.14303463511328</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-1.27331614692328</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-1.990473339811</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.999115801146157</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.56466800768474</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.529057544396903</v>
+      </c>
+      <c r="I159" t="n">
+        <v>22.0527149846868</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>-7501.79807411799</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-0.716070421079969</v>
+      </c>
+      <c r="D160" t="n">
+        <v>-0.879412109291415</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-1.16898174390639</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.999140005394192</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.69904846069941</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.64422576042346</v>
+      </c>
+      <c r="I160" t="n">
+        <v>8.97172165098435</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>-7560.34384901503</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>-0.761098439979894</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-1.51289746841704</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-1.28719137507593</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.999142128305267</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.683485921978049</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.469330187272886</v>
+      </c>
+      <c r="I161" t="n">
+        <v>8.70681725359667</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>-7614.09408309303</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-0.778126429670931</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-1.22933040706464</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-1.18145320562559</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.99924518176345</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.677691428507727</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.540821930274593</v>
+      </c>
+      <c r="I162" t="n">
+        <v>8.76144508650784</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>-7692.2442302281</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-0.870662765577266</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-1.64758249951871</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-0.695940234333382</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.99981870804478</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.647050210243289</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.438765029394147</v>
+      </c>
+      <c r="I163" t="n">
+        <v>8.08013549487021</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>-7972.45572213351</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-2.18318413801775</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-0.16012366092864</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-0.36447763142577</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-0.634681139838838</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.33568163972203</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.923059271438821</v>
+      </c>
+      <c r="I164" t="n">
+        <v>8.91728301007836</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>-7983.46596217032</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-0.820938430702493</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-1.53166437838121</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-1.27230450676586</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.999189802203112</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.663338928295302</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.464946846193161</v>
+      </c>
+      <c r="I165" t="n">
+        <v>8.70994782648338</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>-8538.0682888944</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="n">
+        <v>-0.635860541397188</v>
+      </c>
+      <c r="D166" t="n">
+        <v>-0.667855157771088</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-1.68024977333264</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.999687230105679</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.72765352541764</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.716105641517959</v>
+      </c>
+      <c r="I166" t="n">
+        <v>9.79393028218542</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>-8711.59883385119</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>-0.904323954184892</v>
+      </c>
+      <c r="D167" t="n">
+        <v>-1.70363053586221</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-1.2906812749235</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.999321088565185</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.636251103274337</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.426639763111912</v>
+      </c>
+      <c r="I167" t="n">
+        <v>8.68769539066571</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>-9432.78039000944</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>-0.843626730449222</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.331757265428313</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-0.241117909032618</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.999431449627721</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.65585643358975</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1.18042982746476</v>
+      </c>
+      <c r="I168" t="n">
+        <v>9.3624068492384</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>-10138.756804001</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>-1.04953281825971</v>
+      </c>
+      <c r="D169" t="n">
+        <v>-1.19891095134545</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-1.04182117412077</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.999279504295839</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.591693562439391</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.549110558758916</v>
+      </c>
+      <c r="I169" t="n">
+        <v>8.83752214546371</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>-10209.7872930817</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="n">
+        <v>-1.06380007723119</v>
+      </c>
+      <c r="D170" t="n">
+        <v>-1.56422976230731</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-1.23244206077695</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.999201126251102</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.587487659309196</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.457437561510269</v>
+      </c>
+      <c r="I170" t="n">
+        <v>8.78800149892488</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>-11331.909878087</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-0.701495038700217</v>
+      </c>
+      <c r="D171" t="n">
+        <v>-9.74992611368964</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-1.82622063744757</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.999156019177987</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.704161518571439</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.00763537628854073</v>
+      </c>
+      <c r="I171" t="n">
+        <v>11.0393892351911</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>-11355.6270733662</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-1.15859455425162</v>
+      </c>
+      <c r="D172" t="n">
+        <v>-2.48757189194483</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-0.776775608906671</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.999189822966343</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.560291958231546</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.288290696237859</v>
+      </c>
+      <c r="I172" t="n">
+        <v>8.1330169414573</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>-11481.7552671411</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-1.13124898050432</v>
+      </c>
+      <c r="D173" t="n">
+        <v>-1.27351339581585</v>
+      </c>
+      <c r="E173" t="n">
+        <v>-1.18757345626715</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.999329504228014</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.568005322189946</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.529005368962462</v>
+      </c>
+      <c r="I173" t="n">
+        <v>9.01107742846925</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>-11805.2065624279</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-1.31102698197215</v>
+      </c>
+      <c r="D174" t="n">
+        <v>-1.88409304905309</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-0.668900071873058</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.999659082920956</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.519175402239824</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.389829223380942</v>
+      </c>
+      <c r="I174" t="n">
+        <v>8.13722947324462</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>-11886.5750516122</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1</v>
+      </c>
+      <c r="C175" t="n">
+        <v>-1.49206619597373</v>
+      </c>
+      <c r="D175" t="n">
+        <v>-2.07303763168312</v>
+      </c>
+      <c r="E175" t="n">
+        <v>-0.136459714195748</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.999400976151481</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.474244106143059</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.354687266981298</v>
+      </c>
+      <c r="I175" t="n">
+        <v>7.53050919920891</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>-12246.4514441205</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+      <c r="C176" t="n">
+        <v>-1.14604179286743</v>
+      </c>
+      <c r="D176" t="n">
+        <v>-1.00868462368186</v>
+      </c>
+      <c r="E176" t="n">
+        <v>-1.13630894404489</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.999300952234676</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.563819622762482</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.603902624450842</v>
+      </c>
+      <c r="I176" t="n">
+        <v>9.20503651499165</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>-13172.4561664767</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+      <c r="C177" t="n">
+        <v>-1.41278589967702</v>
+      </c>
+      <c r="D177" t="n">
+        <v>-0.531548042569361</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.674717702124824</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.999380503677781</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.493420784936646</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.766612346001532</v>
+      </c>
+      <c r="I177" t="n">
+        <v>8.36575277107425</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>-13544.2924892852</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+      <c r="C178" t="n">
+        <v>-1.23253125186982</v>
+      </c>
+      <c r="D178" t="n">
+        <v>-2.09957160859128</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-1.39832203388539</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.999670264910032</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.539957078989853</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.350012712301919</v>
+      </c>
+      <c r="I178" t="n">
+        <v>8.78299501665437</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>-13887.0497633639</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+      <c r="C179" t="n">
+        <v>-1.3343488361392</v>
+      </c>
+      <c r="D179" t="n">
+        <v>-1.37766691418118</v>
+      </c>
+      <c r="E179" t="n">
+        <v>-1.08966226734786</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.999218754795924</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.51315649694133</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.502161520483664</v>
+      </c>
+      <c r="I179" t="n">
+        <v>8.98522458735896</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>-14630.0800332427</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+      <c r="C180" t="n">
+        <v>-1.42030170881627</v>
+      </c>
+      <c r="D180" t="n">
+        <v>-2.18542812823385</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-1.29458738412922</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.999455250607242</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.491570036360448</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.335305217775681</v>
+      </c>
+      <c r="I180" t="n">
+        <v>8.70745988240975</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>-14839.4275328766</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+      <c r="C181" t="n">
+        <v>-1.96915318147459</v>
+      </c>
+      <c r="D181" t="n">
+        <v>-2.66122193205121</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.810686231357368</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.99908306905494</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.373597378043362</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.264315724030541</v>
+      </c>
+      <c r="I181" t="n">
+        <v>6.76081230532518</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>-15407.1130707433</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
+      </c>
+      <c r="C182" t="n">
+        <v>-1.43510469600707</v>
+      </c>
+      <c r="D182" t="n">
+        <v>-2.65897418189063</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-1.33018845531311</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.999535534688288</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.487945115347852</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.264612948876621</v>
+      </c>
+      <c r="I182" t="n">
+        <v>8.61289544456491</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>-15521.557623144</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+      <c r="C183" t="n">
+        <v>-1.44192136408512</v>
+      </c>
+      <c r="D183" t="n">
+        <v>-1.20743541170845</v>
+      </c>
+      <c r="E183" t="n">
+        <v>-0.832891961488353</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.999248041249089</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.486284866350844</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.546775103821262</v>
+      </c>
+      <c r="I183" t="n">
+        <v>8.97249767177065</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>-15584.3453912439</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+      <c r="C184" t="n">
+        <v>-1.43026529373058</v>
+      </c>
+      <c r="D184" t="n">
+        <v>-1.33764455023624</v>
+      </c>
+      <c r="E184" t="n">
+        <v>-1.04837582059098</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.999397255059279</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.4891272262997</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.512311584729314</v>
+      </c>
+      <c r="I184" t="n">
+        <v>9.06393126068297</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>-16044.209968817</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+      <c r="C185" t="n">
+        <v>-1.28924707940329</v>
+      </c>
+      <c r="D185" t="n">
+        <v>-1.33165923787084</v>
+      </c>
+      <c r="E185" t="n">
+        <v>-1.6550634485652</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.999992879305336</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.524860093906601</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.513847053580028</v>
+      </c>
+      <c r="I185" t="n">
+        <v>9.73690903766013</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>-16372.9839914471</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+      <c r="C186" t="n">
+        <v>-1.48131549173662</v>
+      </c>
+      <c r="D186" t="n">
+        <v>-1.28707232555195</v>
+      </c>
+      <c r="E186" t="n">
+        <v>-0.945412741428488</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.999461920453018</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.476800198998571</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.525431125068711</v>
+      </c>
+      <c r="I186" t="n">
+        <v>9.04977211703648</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>-17311.3080124597</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+      <c r="C187" t="n">
+        <v>-1.34638696170612</v>
+      </c>
+      <c r="D187" t="n">
+        <v>-1.08048512213212</v>
+      </c>
+      <c r="E187" t="n">
+        <v>-1.53700445087065</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.999934830566049</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.510077052749586</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.582606917478515</v>
+      </c>
+      <c r="I187" t="n">
+        <v>9.8285297201349</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>-18672.4623026423</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+      <c r="C188" t="n">
+        <v>-1.68789756639689</v>
+      </c>
+      <c r="D188" t="n">
+        <v>-2.38150238629871</v>
+      </c>
+      <c r="E188" t="n">
+        <v>-1.19268908260043</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.999065145355329</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.430009153548742</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.303992820950444</v>
+      </c>
+      <c r="I188" t="n">
+        <v>8.62835818226231</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>-18785.6532625529</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+      <c r="C189" t="n">
+        <v>-1.57435293917363</v>
+      </c>
+      <c r="D189" t="n">
+        <v>-1.3384754818934</v>
+      </c>
+      <c r="E189" t="n">
+        <v>-1.07008436812733</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.99927383052902</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.455128050667461</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.512098780981677</v>
+      </c>
+      <c r="I189" t="n">
+        <v>9.22461815918241</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>-20594.439609259</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+      <c r="C190" t="n">
+        <v>-1.66083047982567</v>
+      </c>
+      <c r="D190" t="n">
+        <v>-1.13335702698701</v>
+      </c>
+      <c r="E190" t="n">
+        <v>-0.818266363140457</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.999068804910897</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.43586825884141</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.56740694678534</v>
+      </c>
+      <c r="I190" t="n">
+        <v>9.2500164558846</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>-20901.0756594554</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+      <c r="C191" t="n">
+        <v>-2.03902492745529</v>
+      </c>
+      <c r="D191" t="n">
+        <v>-1.9789349526639</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.129021994776018</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.999363031823035</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.360770786148202</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.371774617099994</v>
+      </c>
+      <c r="I191" t="n">
+        <v>7.72155912053641</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>-21049.5959527194</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+      <c r="C192" t="n">
+        <v>-1.22860523199164</v>
+      </c>
+      <c r="D192" t="n">
+        <v>-0.264664728546065</v>
+      </c>
+      <c r="E192" t="n">
+        <v>-1.59105606743746</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.999650079216546</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.541018061121126</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.8760497790392</v>
+      </c>
+      <c r="I192" t="n">
+        <v>10.543515088022</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>-22591.8128498236</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1</v>
+      </c>
+      <c r="C193" t="n">
+        <v>-1.78090912338949</v>
+      </c>
+      <c r="D193" t="n">
+        <v>-1.62501553078835</v>
+      </c>
+      <c r="E193" t="n">
+        <v>-1.06689814028556</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.999281910850793</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.410469126797136</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.443743864221681</v>
+      </c>
+      <c r="I193" t="n">
+        <v>9.14467757009296</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>-23910.087662145</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+      <c r="C194" t="n">
+        <v>-1.78003590936899</v>
+      </c>
+      <c r="D194" t="n">
+        <v>-1.88104177588145</v>
+      </c>
+      <c r="E194" t="n">
+        <v>-1.30010679577925</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.999400219800469</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.410648379624059</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0.390424415013972</v>
+      </c>
+      <c r="I194" t="n">
+        <v>9.18301556546224</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>-26450.3881625637</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1</v>
+      </c>
+      <c r="C195" t="n">
+        <v>-1.92377434130272</v>
+      </c>
+      <c r="D195" t="n">
+        <v>-1.28109838158506</v>
+      </c>
+      <c r="E195" t="n">
+        <v>-0.631961469772567</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.99941357262706</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.382170983149248</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.527002919402711</v>
+      </c>
+      <c r="I195" t="n">
+        <v>9.18407367816832</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>-26608.4247466082</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+      <c r="C196" t="n">
+        <v>-1.72504890421115</v>
+      </c>
+      <c r="D196" t="n">
+        <v>-1.33144948516272</v>
+      </c>
+      <c r="E196" t="n">
+        <v>-1.61832972770831</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.999545932079167</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.422095177150145</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.513900946811564</v>
+      </c>
+      <c r="I196" t="n">
+        <v>10.0789298249125</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>-33789.546710911</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+      <c r="C197" t="n">
+        <v>-2.1411619540533</v>
+      </c>
+      <c r="D197" t="n">
+        <v>-1.73810443030882</v>
+      </c>
+      <c r="E197" t="n">
+        <v>-1.00032089094173</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.99965457520661</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.342809295227504</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.419348813407788</v>
+      </c>
+      <c r="I197" t="n">
+        <v>9.31039414840841</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>-35351.8319555744</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1</v>
+      </c>
+      <c r="C198" t="n">
+        <v>-2.3635414427012</v>
+      </c>
+      <c r="D198" t="n">
+        <v>-2.58933607420612</v>
+      </c>
+      <c r="E198" t="n">
+        <v>-0.755539858596279</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.99906998265475</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.306735115023085</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.27398880335331</v>
+      </c>
+      <c r="I198" t="n">
+        <v>8.46586366968367</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>-37450.7987811969</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+      <c r="C199" t="n">
+        <v>-1.91576825166277</v>
+      </c>
+      <c r="D199" t="n">
+        <v>-12.5093040620362</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1.58435349758241</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.999681825317608</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.383703896837791</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.00192149446021069</v>
+      </c>
+      <c r="I199" t="n">
+        <v>11.0081793105437</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>-65175.0216892314</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+      <c r="C200" t="n">
+        <v>-4.18604370506719</v>
+      </c>
+      <c r="D200" t="n">
+        <v>-5.46184017669697</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1.95624107090659</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.957073523739372</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.123313935694573</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.0651593097572473</v>
+      </c>
+      <c r="I200" t="n">
+        <v>4.757243318106</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>-85105.0925321051</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
+      </c>
+      <c r="C201" t="n">
+        <v>-3.28675245087732</v>
+      </c>
+      <c r="D201" t="n">
+        <v>-3.75271285097464</v>
+      </c>
+      <c r="E201" t="n">
+        <v>-0.64654894069989</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.999829432087677</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.193326226273716</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.15314709327367</v>
+      </c>
+      <c r="I201" t="n">
+        <v>8.17301068410167</v>
       </c>
     </row>
   </sheetData>

--- a/Output/UC.xlsx
+++ b/Output/UC.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">ll</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t xml:space="preserve">corr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index</t>
   </si>
   <si>
     <t xml:space="preserve">mu_1</t>
@@ -404,165 +407,183 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-176.343531569424</v>
+        <v>-176.601759691421</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.99531695005452</v>
+        <v>-2.93245269474781</v>
       </c>
       <c r="D2" t="n">
-        <v>0.476863839408581</v>
+        <v>0.649469379575802</v>
       </c>
       <c r="E2" t="n">
-        <v>0.409385743582374</v>
+        <v>0.420261912267103</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.223653237150529</v>
+        <v>0.230794783280622</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1165.09795626717</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00599269012858692</v>
+        <v>1165.09476589297</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.00611551926155216</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-176.435976038375</v>
+        <v>-176.852746177779</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.99533098873853</v>
+        <v>-2.96103639583037</v>
       </c>
       <c r="D3" t="n">
-        <v>0.652074906518729</v>
+        <v>0.338810424644897</v>
       </c>
       <c r="E3" t="n">
-        <v>0.435578467762007</v>
+        <v>0.267669730817937</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.223651667257477</v>
+        <v>0.227519757566665</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1165.09175325948</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00608893686044075</v>
+        <v>1165.09989372528</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0059257973301253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-177.421422175891</v>
+        <v>-177.60372669371</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1.60222545363587</v>
+        <v>1.80312415915544</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.947805076571839</v>
+        <v>-0.95674261918056</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0518869571684705</v>
+        <v>-0.0408738622879733</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>2.22801872586815</v>
+        <v>2.46344820933899</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1165.09215551576</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>0.00589517377472792</v>
+        <v>1165.11959443011</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.00672321969225525</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-177.454089766838</v>
+        <v>-177.615007634187</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1.795889713086</v>
+        <v>1.59266766736199</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.955999471078566</v>
+        <v>-0.927968225616245</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0433044947929527</v>
+        <v>-0.0700876880432574</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>2.45455346456763</v>
+        <v>2.2173966635359</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1165.09249301097</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00603195685827514</v>
+        <v>1165.13548734388</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.00662761297303928</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-179.616831180329</v>
+        <v>-180.028041412023</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.99516639081897</v>
+        <v>-2.82226923930354</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.52883496293537</v>
+        <v>-1.49963747674476</v>
       </c>
       <c r="E6" t="n">
-        <v>0.733614888339824</v>
+        <v>0.707241288563303</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.223670074314476</v>
+        <v>0.243866430477468</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1165.09200627848</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00584512270658521</v>
+        <v>1165.10184517764</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0058728346501745</v>
       </c>
     </row>
   </sheetData>
